--- a/assets/xlsx/Cod4.xlsx
+++ b/assets/xlsx/Cod4.xlsx
@@ -11,7 +11,7 @@
     <sheet state="visible" name="Streak" sheetId="6" r:id="rId9"/>
     <sheet state="visible" name="Map" sheetId="7" r:id="rId10"/>
     <sheet state="visible" name="Campaign Mission" sheetId="8" r:id="rId11"/>
-    <sheet state="visible" name="Camouflages" sheetId="9" r:id="rId12"/>
+    <sheet state="visible" name="Camouflage" sheetId="9" r:id="rId12"/>
   </sheets>
   <definedNames>
     <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Weapon!$A$1:$Z$1000</definedName>
@@ -19,7 +19,7 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId13" roundtripDataChecksum="ANPs7+AguM6YsGSzVUxXkhaQKvL8PeC59dtIlGSSLww="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId13" roundtripDataChecksum="d5zFai0fF+vEDMeQoaZwotVEjazjomzy4ifUR/glhhQ="/>
     </ext>
   </extLst>
 </workbook>
@@ -457,7 +457,7 @@
     <t>Ukraine</t>
   </si>
   <si>
-    <t>Wasteland, Bloc, Shipment, Vacant</t>
+    <t>Bloc, Shipment, Vacant</t>
   </si>
   <si>
     <t>One Shot, One Kill</t>

--- a/assets/xlsx/Cod4.xlsx
+++ b/assets/xlsx/Cod4.xlsx
@@ -11,7 +11,8 @@
     <sheet state="visible" name="Streak" sheetId="6" r:id="rId9"/>
     <sheet state="visible" name="Map" sheetId="7" r:id="rId10"/>
     <sheet state="visible" name="Campaign Mission" sheetId="8" r:id="rId11"/>
-    <sheet state="visible" name="Camouflage" sheetId="9" r:id="rId12"/>
+    <sheet state="visible" name="CamouflageChallenge" sheetId="9" r:id="rId12"/>
+    <sheet state="visible" name="CampaignChallenge" sheetId="10" r:id="rId13"/>
   </sheets>
   <definedNames>
     <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Weapon!$A$1:$Z$1000</definedName>
@@ -19,14 +20,14 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId13" roundtripDataChecksum="d5zFai0fF+vEDMeQoaZwotVEjazjomzy4ifUR/glhhQ="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId14" roundtripDataChecksum="DbgTQkmdNG0gDUvyFZD9jn+1UkfQ/1IMvbpaZa9XvQU="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="725" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1065" uniqueCount="179">
   <si>
     <t>name</t>
   </si>
@@ -571,6 +572,27 @@
       <t>Barrett .50cal</t>
     </r>
   </si>
+  <si>
+    <t>campaign_mission</t>
+  </si>
+  <si>
+    <t>difficulty</t>
+  </si>
+  <si>
+    <t>campaign</t>
+  </si>
+  <si>
+    <t>Recruit</t>
+  </si>
+  <si>
+    <t>Regular</t>
+  </si>
+  <si>
+    <t>Hardened</t>
+  </si>
+  <si>
+    <t>Veteran</t>
+  </si>
 </sst>
 </file>
 
@@ -655,6 +677,10 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
@@ -5191,6 +5217,2038 @@
       <formula1>"primary,secondary"</formula1>
     </dataValidation>
   </dataValidations>
+  <printOptions/>
+  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="landscape"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <pageSetUpPr/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
+  <cols>
+    <col customWidth="1" min="1" max="2" width="25.25"/>
+    <col customWidth="1" min="3" max="3" width="10.13"/>
+    <col customWidth="1" min="4" max="22" width="10.63"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="21" ht="15.75" customHeight="1">
+      <c r="A21" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="22" ht="15.75" customHeight="1">
+      <c r="A22" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="23" ht="15.75" customHeight="1">
+      <c r="A23" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="24" ht="15.75" customHeight="1">
+      <c r="A24" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="25" ht="15.75" customHeight="1">
+      <c r="A25" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="26" ht="15.75" customHeight="1">
+      <c r="A26" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="27" ht="15.75" customHeight="1">
+      <c r="A27" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="28" ht="15.75" customHeight="1">
+      <c r="A28" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="29" ht="15.75" customHeight="1">
+      <c r="A29" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="30" ht="15.75" customHeight="1">
+      <c r="A30" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="31" ht="15.75" customHeight="1">
+      <c r="A31" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="32" ht="15.75" customHeight="1">
+      <c r="A32" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="33" ht="15.75" customHeight="1">
+      <c r="A33" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="34" ht="15.75" customHeight="1">
+      <c r="A34" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="35" ht="15.75" customHeight="1">
+      <c r="A35" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="36" ht="15.75" customHeight="1">
+      <c r="A36" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="37" ht="15.75" customHeight="1">
+      <c r="A37" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="38" ht="15.75" customHeight="1">
+      <c r="A38" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="39" ht="15.75" customHeight="1">
+      <c r="A39" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="40" ht="15.75" customHeight="1">
+      <c r="A40" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="41" ht="15.75" customHeight="1">
+      <c r="A41" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="42" ht="15.75" customHeight="1">
+      <c r="A42" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="43" ht="15.75" customHeight="1">
+      <c r="A43" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="44" ht="15.75" customHeight="1">
+      <c r="A44" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="45" ht="15.75" customHeight="1">
+      <c r="A45" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="46" ht="15.75" customHeight="1">
+      <c r="A46" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="47" ht="15.75" customHeight="1">
+      <c r="A47" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="48" ht="15.75" customHeight="1">
+      <c r="A48" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="49" ht="15.75" customHeight="1">
+      <c r="A49" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="50" ht="15.75" customHeight="1">
+      <c r="A50" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="51" ht="15.75" customHeight="1">
+      <c r="A51" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="52" ht="15.75" customHeight="1">
+      <c r="A52" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="53" ht="15.75" customHeight="1">
+      <c r="A53" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="54" ht="15.75" customHeight="1">
+      <c r="A54" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="55" ht="15.75" customHeight="1">
+      <c r="A55" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="56" ht="15.75" customHeight="1">
+      <c r="A56" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="57" ht="15.75" customHeight="1">
+      <c r="A57" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="58" ht="15.75" customHeight="1">
+      <c r="A58" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="59" ht="15.75" customHeight="1">
+      <c r="A59" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="60" ht="15.75" customHeight="1">
+      <c r="A60" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="61" ht="15.75" customHeight="1">
+      <c r="A61" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="62" ht="15.75" customHeight="1">
+      <c r="A62" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="63" ht="15.75" customHeight="1">
+      <c r="A63" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="64" ht="15.75" customHeight="1">
+      <c r="A64" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="65" ht="15.75" customHeight="1">
+      <c r="A65" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="66" ht="15.75" customHeight="1">
+      <c r="A66" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="67" ht="15.75" customHeight="1">
+      <c r="A67" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="68" ht="15.75" customHeight="1">
+      <c r="A68" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="69" ht="15.75" customHeight="1">
+      <c r="A69" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="70" ht="15.75" customHeight="1">
+      <c r="A70" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="71" ht="15.75" customHeight="1">
+      <c r="A71" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="72" ht="15.75" customHeight="1">
+      <c r="A72" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="73" ht="15.75" customHeight="1">
+      <c r="A73" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="74" ht="15.75" customHeight="1">
+      <c r="A74" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="75" ht="15.75" customHeight="1">
+      <c r="A75" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="76" ht="15.75" customHeight="1">
+      <c r="A76" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="77" ht="15.75" customHeight="1">
+      <c r="A77" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="78" ht="15.75" customHeight="1">
+      <c r="A78" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="79" ht="15.75" customHeight="1">
+      <c r="A79" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="80" ht="15.75" customHeight="1">
+      <c r="A80" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="81" ht="15.75" customHeight="1">
+      <c r="A81" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="82" ht="15.75" customHeight="1">
+      <c r="A82" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="83" ht="15.75" customHeight="1">
+      <c r="A83" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="84" ht="15.75" customHeight="1">
+      <c r="A84" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="85" ht="15.75" customHeight="1">
+      <c r="A85" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="86" ht="15.75" customHeight="1"/>
+    <row r="87" ht="15.75" customHeight="1"/>
+    <row r="88" ht="15.75" customHeight="1"/>
+    <row r="89" ht="15.75" customHeight="1"/>
+    <row r="90" ht="15.75" customHeight="1"/>
+    <row r="91" ht="15.75" customHeight="1"/>
+    <row r="92" ht="15.75" customHeight="1"/>
+    <row r="93" ht="15.75" customHeight="1"/>
+    <row r="94" ht="15.75" customHeight="1"/>
+    <row r="95" ht="15.75" customHeight="1"/>
+    <row r="96" ht="15.75" customHeight="1"/>
+    <row r="97" ht="15.75" customHeight="1"/>
+    <row r="98" ht="15.75" customHeight="1"/>
+    <row r="99" ht="15.75" customHeight="1"/>
+    <row r="100" ht="15.75" customHeight="1"/>
+    <row r="101" ht="15.75" customHeight="1"/>
+    <row r="102" ht="15.75" customHeight="1"/>
+    <row r="103" ht="15.75" customHeight="1"/>
+    <row r="104" ht="15.75" customHeight="1"/>
+    <row r="105" ht="15.75" customHeight="1"/>
+    <row r="106" ht="15.75" customHeight="1"/>
+    <row r="107" ht="15.75" customHeight="1"/>
+    <row r="108" ht="15.75" customHeight="1"/>
+    <row r="109" ht="15.75" customHeight="1"/>
+    <row r="110" ht="15.75" customHeight="1"/>
+    <row r="111" ht="15.75" customHeight="1"/>
+    <row r="112" ht="15.75" customHeight="1"/>
+    <row r="113" ht="15.75" customHeight="1"/>
+    <row r="114" ht="15.75" customHeight="1"/>
+    <row r="115" ht="15.75" customHeight="1"/>
+    <row r="116" ht="15.75" customHeight="1"/>
+    <row r="117" ht="15.75" customHeight="1"/>
+    <row r="118" ht="15.75" customHeight="1"/>
+    <row r="119" ht="15.75" customHeight="1"/>
+    <row r="120" ht="15.75" customHeight="1"/>
+    <row r="121" ht="15.75" customHeight="1"/>
+    <row r="122" ht="15.75" customHeight="1"/>
+    <row r="123" ht="15.75" customHeight="1"/>
+    <row r="124" ht="15.75" customHeight="1"/>
+    <row r="125" ht="15.75" customHeight="1"/>
+    <row r="126" ht="15.75" customHeight="1"/>
+    <row r="127" ht="15.75" customHeight="1"/>
+    <row r="128" ht="15.75" customHeight="1"/>
+    <row r="129" ht="15.75" customHeight="1"/>
+    <row r="130" ht="15.75" customHeight="1"/>
+    <row r="131" ht="15.75" customHeight="1"/>
+    <row r="132" ht="15.75" customHeight="1"/>
+    <row r="133" ht="15.75" customHeight="1"/>
+    <row r="134" ht="15.75" customHeight="1"/>
+    <row r="135" ht="15.75" customHeight="1"/>
+    <row r="136" ht="15.75" customHeight="1"/>
+    <row r="137" ht="15.75" customHeight="1"/>
+    <row r="138" ht="15.75" customHeight="1"/>
+    <row r="139" ht="15.75" customHeight="1"/>
+    <row r="140" ht="15.75" customHeight="1"/>
+    <row r="141" ht="15.75" customHeight="1"/>
+    <row r="142" ht="15.75" customHeight="1"/>
+    <row r="143" ht="15.75" customHeight="1"/>
+    <row r="144" ht="15.75" customHeight="1"/>
+    <row r="145" ht="15.75" customHeight="1"/>
+    <row r="146" ht="15.75" customHeight="1"/>
+    <row r="147" ht="15.75" customHeight="1"/>
+    <row r="148" ht="15.75" customHeight="1"/>
+    <row r="149" ht="15.75" customHeight="1"/>
+    <row r="150" ht="15.75" customHeight="1"/>
+    <row r="151" ht="15.75" customHeight="1"/>
+    <row r="152" ht="15.75" customHeight="1"/>
+    <row r="153" ht="15.75" customHeight="1"/>
+    <row r="154" ht="15.75" customHeight="1"/>
+    <row r="155" ht="15.75" customHeight="1"/>
+    <row r="156" ht="15.75" customHeight="1"/>
+    <row r="157" ht="15.75" customHeight="1"/>
+    <row r="158" ht="15.75" customHeight="1"/>
+    <row r="159" ht="15.75" customHeight="1"/>
+    <row r="160" ht="15.75" customHeight="1"/>
+    <row r="161" ht="15.75" customHeight="1"/>
+    <row r="162" ht="15.75" customHeight="1"/>
+    <row r="163" ht="15.75" customHeight="1"/>
+    <row r="164" ht="15.75" customHeight="1"/>
+    <row r="165" ht="15.75" customHeight="1"/>
+    <row r="166" ht="15.75" customHeight="1"/>
+    <row r="167" ht="15.75" customHeight="1"/>
+    <row r="168" ht="15.75" customHeight="1"/>
+    <row r="169" ht="15.75" customHeight="1"/>
+    <row r="170" ht="15.75" customHeight="1"/>
+    <row r="171" ht="15.75" customHeight="1"/>
+    <row r="172" ht="15.75" customHeight="1"/>
+    <row r="173" ht="15.75" customHeight="1"/>
+    <row r="174" ht="15.75" customHeight="1"/>
+    <row r="175" ht="15.75" customHeight="1"/>
+    <row r="176" ht="15.75" customHeight="1"/>
+    <row r="177" ht="15.75" customHeight="1"/>
+    <row r="178" ht="15.75" customHeight="1"/>
+    <row r="179" ht="15.75" customHeight="1"/>
+    <row r="180" ht="15.75" customHeight="1"/>
+    <row r="181" ht="15.75" customHeight="1"/>
+    <row r="182" ht="15.75" customHeight="1"/>
+    <row r="183" ht="15.75" customHeight="1"/>
+    <row r="184" ht="15.75" customHeight="1"/>
+    <row r="185" ht="15.75" customHeight="1"/>
+    <row r="186" ht="15.75" customHeight="1"/>
+    <row r="187" ht="15.75" customHeight="1"/>
+    <row r="188" ht="15.75" customHeight="1"/>
+    <row r="189" ht="15.75" customHeight="1"/>
+    <row r="190" ht="15.75" customHeight="1"/>
+    <row r="191" ht="15.75" customHeight="1"/>
+    <row r="192" ht="15.75" customHeight="1"/>
+    <row r="193" ht="15.75" customHeight="1"/>
+    <row r="194" ht="15.75" customHeight="1"/>
+    <row r="195" ht="15.75" customHeight="1"/>
+    <row r="196" ht="15.75" customHeight="1"/>
+    <row r="197" ht="15.75" customHeight="1"/>
+    <row r="198" ht="15.75" customHeight="1"/>
+    <row r="199" ht="15.75" customHeight="1"/>
+    <row r="200" ht="15.75" customHeight="1"/>
+    <row r="201" ht="15.75" customHeight="1"/>
+    <row r="202" ht="15.75" customHeight="1"/>
+    <row r="203" ht="15.75" customHeight="1"/>
+    <row r="204" ht="15.75" customHeight="1"/>
+    <row r="205" ht="15.75" customHeight="1"/>
+    <row r="206" ht="15.75" customHeight="1"/>
+    <row r="207" ht="15.75" customHeight="1"/>
+    <row r="208" ht="15.75" customHeight="1"/>
+    <row r="209" ht="15.75" customHeight="1"/>
+    <row r="210" ht="15.75" customHeight="1"/>
+    <row r="211" ht="15.75" customHeight="1"/>
+    <row r="212" ht="15.75" customHeight="1"/>
+    <row r="213" ht="15.75" customHeight="1"/>
+    <row r="214" ht="15.75" customHeight="1"/>
+    <row r="215" ht="15.75" customHeight="1"/>
+    <row r="216" ht="15.75" customHeight="1"/>
+    <row r="217" ht="15.75" customHeight="1"/>
+    <row r="218" ht="15.75" customHeight="1"/>
+    <row r="219" ht="15.75" customHeight="1"/>
+    <row r="220" ht="15.75" customHeight="1"/>
+    <row r="221" ht="15.75" customHeight="1"/>
+    <row r="222" ht="15.75" customHeight="1"/>
+    <row r="223" ht="15.75" customHeight="1"/>
+    <row r="224" ht="15.75" customHeight="1"/>
+    <row r="225" ht="15.75" customHeight="1"/>
+    <row r="226" ht="15.75" customHeight="1"/>
+    <row r="227" ht="15.75" customHeight="1"/>
+    <row r="228" ht="15.75" customHeight="1"/>
+    <row r="229" ht="15.75" customHeight="1"/>
+    <row r="230" ht="15.75" customHeight="1"/>
+    <row r="231" ht="15.75" customHeight="1"/>
+    <row r="232" ht="15.75" customHeight="1"/>
+    <row r="233" ht="15.75" customHeight="1"/>
+    <row r="234" ht="15.75" customHeight="1"/>
+    <row r="235" ht="15.75" customHeight="1"/>
+    <row r="236" ht="15.75" customHeight="1"/>
+    <row r="237" ht="15.75" customHeight="1"/>
+    <row r="238" ht="15.75" customHeight="1"/>
+    <row r="239" ht="15.75" customHeight="1"/>
+    <row r="240" ht="15.75" customHeight="1"/>
+    <row r="241" ht="15.75" customHeight="1"/>
+    <row r="242" ht="15.75" customHeight="1"/>
+    <row r="243" ht="15.75" customHeight="1"/>
+    <row r="244" ht="15.75" customHeight="1"/>
+    <row r="245" ht="15.75" customHeight="1"/>
+    <row r="246" ht="15.75" customHeight="1"/>
+    <row r="247" ht="15.75" customHeight="1"/>
+    <row r="248" ht="15.75" customHeight="1"/>
+    <row r="249" ht="15.75" customHeight="1"/>
+    <row r="250" ht="15.75" customHeight="1"/>
+    <row r="251" ht="15.75" customHeight="1"/>
+    <row r="252" ht="15.75" customHeight="1"/>
+    <row r="253" ht="15.75" customHeight="1"/>
+    <row r="254" ht="15.75" customHeight="1"/>
+    <row r="255" ht="15.75" customHeight="1"/>
+    <row r="256" ht="15.75" customHeight="1"/>
+    <row r="257" ht="15.75" customHeight="1"/>
+    <row r="258" ht="15.75" customHeight="1"/>
+    <row r="259" ht="15.75" customHeight="1"/>
+    <row r="260" ht="15.75" customHeight="1"/>
+    <row r="261" ht="15.75" customHeight="1"/>
+    <row r="262" ht="15.75" customHeight="1"/>
+    <row r="263" ht="15.75" customHeight="1"/>
+    <row r="264" ht="15.75" customHeight="1"/>
+    <row r="265" ht="15.75" customHeight="1"/>
+    <row r="266" ht="15.75" customHeight="1"/>
+    <row r="267" ht="15.75" customHeight="1"/>
+    <row r="268" ht="15.75" customHeight="1"/>
+    <row r="269" ht="15.75" customHeight="1"/>
+    <row r="270" ht="15.75" customHeight="1"/>
+    <row r="271" ht="15.75" customHeight="1"/>
+    <row r="272" ht="15.75" customHeight="1"/>
+    <row r="273" ht="15.75" customHeight="1"/>
+    <row r="274" ht="15.75" customHeight="1"/>
+    <row r="275" ht="15.75" customHeight="1"/>
+    <row r="276" ht="15.75" customHeight="1"/>
+    <row r="277" ht="15.75" customHeight="1"/>
+    <row r="278" ht="15.75" customHeight="1"/>
+    <row r="279" ht="15.75" customHeight="1"/>
+    <row r="280" ht="15.75" customHeight="1"/>
+    <row r="281" ht="15.75" customHeight="1"/>
+    <row r="282" ht="15.75" customHeight="1"/>
+    <row r="283" ht="15.75" customHeight="1"/>
+    <row r="284" ht="15.75" customHeight="1"/>
+    <row r="285" ht="15.75" customHeight="1"/>
+    <row r="286" ht="15.75" customHeight="1"/>
+    <row r="287" ht="15.75" customHeight="1"/>
+    <row r="288" ht="15.75" customHeight="1"/>
+    <row r="289" ht="15.75" customHeight="1"/>
+    <row r="290" ht="15.75" customHeight="1"/>
+    <row r="291" ht="15.75" customHeight="1"/>
+    <row r="292" ht="15.75" customHeight="1"/>
+    <row r="293" ht="15.75" customHeight="1"/>
+    <row r="294" ht="15.75" customHeight="1"/>
+    <row r="295" ht="15.75" customHeight="1"/>
+    <row r="296" ht="15.75" customHeight="1"/>
+    <row r="297" ht="15.75" customHeight="1"/>
+    <row r="298" ht="15.75" customHeight="1"/>
+    <row r="299" ht="15.75" customHeight="1"/>
+    <row r="300" ht="15.75" customHeight="1"/>
+    <row r="301" ht="15.75" customHeight="1"/>
+    <row r="302" ht="15.75" customHeight="1"/>
+    <row r="303" ht="15.75" customHeight="1"/>
+    <row r="304" ht="15.75" customHeight="1"/>
+    <row r="305" ht="15.75" customHeight="1"/>
+    <row r="306" ht="15.75" customHeight="1"/>
+    <row r="307" ht="15.75" customHeight="1"/>
+    <row r="308" ht="15.75" customHeight="1"/>
+    <row r="309" ht="15.75" customHeight="1"/>
+    <row r="310" ht="15.75" customHeight="1"/>
+    <row r="311" ht="15.75" customHeight="1"/>
+    <row r="312" ht="15.75" customHeight="1"/>
+    <row r="313" ht="15.75" customHeight="1"/>
+    <row r="314" ht="15.75" customHeight="1"/>
+    <row r="315" ht="15.75" customHeight="1"/>
+    <row r="316" ht="15.75" customHeight="1"/>
+    <row r="317" ht="15.75" customHeight="1"/>
+    <row r="318" ht="15.75" customHeight="1"/>
+    <row r="319" ht="15.75" customHeight="1"/>
+    <row r="320" ht="15.75" customHeight="1"/>
+    <row r="321" ht="15.75" customHeight="1"/>
+    <row r="322" ht="15.75" customHeight="1"/>
+    <row r="323" ht="15.75" customHeight="1"/>
+    <row r="324" ht="15.75" customHeight="1"/>
+    <row r="325" ht="15.75" customHeight="1"/>
+    <row r="326" ht="15.75" customHeight="1"/>
+    <row r="327" ht="15.75" customHeight="1"/>
+    <row r="328" ht="15.75" customHeight="1"/>
+    <row r="329" ht="15.75" customHeight="1"/>
+    <row r="330" ht="15.75" customHeight="1"/>
+    <row r="331" ht="15.75" customHeight="1"/>
+    <row r="332" ht="15.75" customHeight="1"/>
+    <row r="333" ht="15.75" customHeight="1"/>
+    <row r="334" ht="15.75" customHeight="1"/>
+    <row r="335" ht="15.75" customHeight="1"/>
+    <row r="336" ht="15.75" customHeight="1"/>
+    <row r="337" ht="15.75" customHeight="1"/>
+    <row r="338" ht="15.75" customHeight="1"/>
+    <row r="339" ht="15.75" customHeight="1"/>
+    <row r="340" ht="15.75" customHeight="1"/>
+    <row r="341" ht="15.75" customHeight="1"/>
+    <row r="342" ht="15.75" customHeight="1"/>
+    <row r="343" ht="15.75" customHeight="1"/>
+    <row r="344" ht="15.75" customHeight="1"/>
+    <row r="345" ht="15.75" customHeight="1"/>
+    <row r="346" ht="15.75" customHeight="1"/>
+    <row r="347" ht="15.75" customHeight="1"/>
+    <row r="348" ht="15.75" customHeight="1"/>
+    <row r="349" ht="15.75" customHeight="1"/>
+    <row r="350" ht="15.75" customHeight="1"/>
+    <row r="351" ht="15.75" customHeight="1"/>
+    <row r="352" ht="15.75" customHeight="1"/>
+    <row r="353" ht="15.75" customHeight="1"/>
+    <row r="354" ht="15.75" customHeight="1"/>
+    <row r="355" ht="15.75" customHeight="1"/>
+    <row r="356" ht="15.75" customHeight="1"/>
+    <row r="357" ht="15.75" customHeight="1"/>
+    <row r="358" ht="15.75" customHeight="1"/>
+    <row r="359" ht="15.75" customHeight="1"/>
+    <row r="360" ht="15.75" customHeight="1"/>
+    <row r="361" ht="15.75" customHeight="1"/>
+    <row r="362" ht="15.75" customHeight="1"/>
+    <row r="363" ht="15.75" customHeight="1"/>
+    <row r="364" ht="15.75" customHeight="1"/>
+    <row r="365" ht="15.75" customHeight="1"/>
+    <row r="366" ht="15.75" customHeight="1"/>
+    <row r="367" ht="15.75" customHeight="1"/>
+    <row r="368" ht="15.75" customHeight="1"/>
+    <row r="369" ht="15.75" customHeight="1"/>
+    <row r="370" ht="15.75" customHeight="1"/>
+    <row r="371" ht="15.75" customHeight="1"/>
+    <row r="372" ht="15.75" customHeight="1"/>
+    <row r="373" ht="15.75" customHeight="1"/>
+    <row r="374" ht="15.75" customHeight="1"/>
+    <row r="375" ht="15.75" customHeight="1"/>
+    <row r="376" ht="15.75" customHeight="1"/>
+    <row r="377" ht="15.75" customHeight="1"/>
+    <row r="378" ht="15.75" customHeight="1"/>
+    <row r="379" ht="15.75" customHeight="1"/>
+    <row r="380" ht="15.75" customHeight="1"/>
+    <row r="381" ht="15.75" customHeight="1"/>
+    <row r="382" ht="15.75" customHeight="1"/>
+    <row r="383" ht="15.75" customHeight="1"/>
+    <row r="384" ht="15.75" customHeight="1"/>
+    <row r="385" ht="15.75" customHeight="1"/>
+    <row r="386" ht="15.75" customHeight="1"/>
+    <row r="387" ht="15.75" customHeight="1"/>
+    <row r="388" ht="15.75" customHeight="1"/>
+    <row r="389" ht="15.75" customHeight="1"/>
+    <row r="390" ht="15.75" customHeight="1"/>
+    <row r="391" ht="15.75" customHeight="1"/>
+    <row r="392" ht="15.75" customHeight="1"/>
+    <row r="393" ht="15.75" customHeight="1"/>
+    <row r="394" ht="15.75" customHeight="1"/>
+    <row r="395" ht="15.75" customHeight="1"/>
+    <row r="396" ht="15.75" customHeight="1"/>
+    <row r="397" ht="15.75" customHeight="1"/>
+    <row r="398" ht="15.75" customHeight="1"/>
+    <row r="399" ht="15.75" customHeight="1"/>
+    <row r="400" ht="15.75" customHeight="1"/>
+    <row r="401" ht="15.75" customHeight="1"/>
+    <row r="402" ht="15.75" customHeight="1"/>
+    <row r="403" ht="15.75" customHeight="1"/>
+    <row r="404" ht="15.75" customHeight="1"/>
+    <row r="405" ht="15.75" customHeight="1"/>
+    <row r="406" ht="15.75" customHeight="1"/>
+    <row r="407" ht="15.75" customHeight="1"/>
+    <row r="408" ht="15.75" customHeight="1"/>
+    <row r="409" ht="15.75" customHeight="1"/>
+    <row r="410" ht="15.75" customHeight="1"/>
+    <row r="411" ht="15.75" customHeight="1"/>
+    <row r="412" ht="15.75" customHeight="1"/>
+    <row r="413" ht="15.75" customHeight="1"/>
+    <row r="414" ht="15.75" customHeight="1"/>
+    <row r="415" ht="15.75" customHeight="1"/>
+    <row r="416" ht="15.75" customHeight="1"/>
+    <row r="417" ht="15.75" customHeight="1"/>
+    <row r="418" ht="15.75" customHeight="1"/>
+    <row r="419" ht="15.75" customHeight="1"/>
+    <row r="420" ht="15.75" customHeight="1"/>
+    <row r="421" ht="15.75" customHeight="1"/>
+    <row r="422" ht="15.75" customHeight="1"/>
+    <row r="423" ht="15.75" customHeight="1"/>
+    <row r="424" ht="15.75" customHeight="1"/>
+    <row r="425" ht="15.75" customHeight="1"/>
+    <row r="426" ht="15.75" customHeight="1"/>
+    <row r="427" ht="15.75" customHeight="1"/>
+    <row r="428" ht="15.75" customHeight="1"/>
+    <row r="429" ht="15.75" customHeight="1"/>
+    <row r="430" ht="15.75" customHeight="1"/>
+    <row r="431" ht="15.75" customHeight="1"/>
+    <row r="432" ht="15.75" customHeight="1"/>
+    <row r="433" ht="15.75" customHeight="1"/>
+    <row r="434" ht="15.75" customHeight="1"/>
+    <row r="435" ht="15.75" customHeight="1"/>
+    <row r="436" ht="15.75" customHeight="1"/>
+    <row r="437" ht="15.75" customHeight="1"/>
+    <row r="438" ht="15.75" customHeight="1"/>
+    <row r="439" ht="15.75" customHeight="1"/>
+    <row r="440" ht="15.75" customHeight="1"/>
+    <row r="441" ht="15.75" customHeight="1"/>
+    <row r="442" ht="15.75" customHeight="1"/>
+    <row r="443" ht="15.75" customHeight="1"/>
+    <row r="444" ht="15.75" customHeight="1"/>
+    <row r="445" ht="15.75" customHeight="1"/>
+    <row r="446" ht="15.75" customHeight="1"/>
+    <row r="447" ht="15.75" customHeight="1"/>
+    <row r="448" ht="15.75" customHeight="1"/>
+    <row r="449" ht="15.75" customHeight="1"/>
+    <row r="450" ht="15.75" customHeight="1"/>
+    <row r="451" ht="15.75" customHeight="1"/>
+    <row r="452" ht="15.75" customHeight="1"/>
+    <row r="453" ht="15.75" customHeight="1"/>
+    <row r="454" ht="15.75" customHeight="1"/>
+    <row r="455" ht="15.75" customHeight="1"/>
+    <row r="456" ht="15.75" customHeight="1"/>
+    <row r="457" ht="15.75" customHeight="1"/>
+    <row r="458" ht="15.75" customHeight="1"/>
+    <row r="459" ht="15.75" customHeight="1"/>
+    <row r="460" ht="15.75" customHeight="1"/>
+    <row r="461" ht="15.75" customHeight="1"/>
+    <row r="462" ht="15.75" customHeight="1"/>
+    <row r="463" ht="15.75" customHeight="1"/>
+    <row r="464" ht="15.75" customHeight="1"/>
+    <row r="465" ht="15.75" customHeight="1"/>
+    <row r="466" ht="15.75" customHeight="1"/>
+    <row r="467" ht="15.75" customHeight="1"/>
+    <row r="468" ht="15.75" customHeight="1"/>
+    <row r="469" ht="15.75" customHeight="1"/>
+    <row r="470" ht="15.75" customHeight="1"/>
+    <row r="471" ht="15.75" customHeight="1"/>
+    <row r="472" ht="15.75" customHeight="1"/>
+    <row r="473" ht="15.75" customHeight="1"/>
+    <row r="474" ht="15.75" customHeight="1"/>
+    <row r="475" ht="15.75" customHeight="1"/>
+    <row r="476" ht="15.75" customHeight="1"/>
+    <row r="477" ht="15.75" customHeight="1"/>
+    <row r="478" ht="15.75" customHeight="1"/>
+    <row r="479" ht="15.75" customHeight="1"/>
+    <row r="480" ht="15.75" customHeight="1"/>
+    <row r="481" ht="15.75" customHeight="1"/>
+    <row r="482" ht="15.75" customHeight="1"/>
+    <row r="483" ht="15.75" customHeight="1"/>
+    <row r="484" ht="15.75" customHeight="1"/>
+    <row r="485" ht="15.75" customHeight="1"/>
+    <row r="486" ht="15.75" customHeight="1"/>
+    <row r="487" ht="15.75" customHeight="1"/>
+    <row r="488" ht="15.75" customHeight="1"/>
+    <row r="489" ht="15.75" customHeight="1"/>
+    <row r="490" ht="15.75" customHeight="1"/>
+    <row r="491" ht="15.75" customHeight="1"/>
+    <row r="492" ht="15.75" customHeight="1"/>
+    <row r="493" ht="15.75" customHeight="1"/>
+    <row r="494" ht="15.75" customHeight="1"/>
+    <row r="495" ht="15.75" customHeight="1"/>
+    <row r="496" ht="15.75" customHeight="1"/>
+    <row r="497" ht="15.75" customHeight="1"/>
+    <row r="498" ht="15.75" customHeight="1"/>
+    <row r="499" ht="15.75" customHeight="1"/>
+    <row r="500" ht="15.75" customHeight="1"/>
+    <row r="501" ht="15.75" customHeight="1"/>
+    <row r="502" ht="15.75" customHeight="1"/>
+    <row r="503" ht="15.75" customHeight="1"/>
+    <row r="504" ht="15.75" customHeight="1"/>
+    <row r="505" ht="15.75" customHeight="1"/>
+    <row r="506" ht="15.75" customHeight="1"/>
+    <row r="507" ht="15.75" customHeight="1"/>
+    <row r="508" ht="15.75" customHeight="1"/>
+    <row r="509" ht="15.75" customHeight="1"/>
+    <row r="510" ht="15.75" customHeight="1"/>
+    <row r="511" ht="15.75" customHeight="1"/>
+    <row r="512" ht="15.75" customHeight="1"/>
+    <row r="513" ht="15.75" customHeight="1"/>
+    <row r="514" ht="15.75" customHeight="1"/>
+    <row r="515" ht="15.75" customHeight="1"/>
+    <row r="516" ht="15.75" customHeight="1"/>
+    <row r="517" ht="15.75" customHeight="1"/>
+    <row r="518" ht="15.75" customHeight="1"/>
+    <row r="519" ht="15.75" customHeight="1"/>
+    <row r="520" ht="15.75" customHeight="1"/>
+    <row r="521" ht="15.75" customHeight="1"/>
+    <row r="522" ht="15.75" customHeight="1"/>
+    <row r="523" ht="15.75" customHeight="1"/>
+    <row r="524" ht="15.75" customHeight="1"/>
+    <row r="525" ht="15.75" customHeight="1"/>
+    <row r="526" ht="15.75" customHeight="1"/>
+    <row r="527" ht="15.75" customHeight="1"/>
+    <row r="528" ht="15.75" customHeight="1"/>
+    <row r="529" ht="15.75" customHeight="1"/>
+    <row r="530" ht="15.75" customHeight="1"/>
+    <row r="531" ht="15.75" customHeight="1"/>
+    <row r="532" ht="15.75" customHeight="1"/>
+    <row r="533" ht="15.75" customHeight="1"/>
+    <row r="534" ht="15.75" customHeight="1"/>
+    <row r="535" ht="15.75" customHeight="1"/>
+    <row r="536" ht="15.75" customHeight="1"/>
+    <row r="537" ht="15.75" customHeight="1"/>
+    <row r="538" ht="15.75" customHeight="1"/>
+    <row r="539" ht="15.75" customHeight="1"/>
+    <row r="540" ht="15.75" customHeight="1"/>
+    <row r="541" ht="15.75" customHeight="1"/>
+    <row r="542" ht="15.75" customHeight="1"/>
+    <row r="543" ht="15.75" customHeight="1"/>
+    <row r="544" ht="15.75" customHeight="1"/>
+    <row r="545" ht="15.75" customHeight="1"/>
+    <row r="546" ht="15.75" customHeight="1"/>
+    <row r="547" ht="15.75" customHeight="1"/>
+    <row r="548" ht="15.75" customHeight="1"/>
+    <row r="549" ht="15.75" customHeight="1"/>
+    <row r="550" ht="15.75" customHeight="1"/>
+    <row r="551" ht="15.75" customHeight="1"/>
+    <row r="552" ht="15.75" customHeight="1"/>
+    <row r="553" ht="15.75" customHeight="1"/>
+    <row r="554" ht="15.75" customHeight="1"/>
+    <row r="555" ht="15.75" customHeight="1"/>
+    <row r="556" ht="15.75" customHeight="1"/>
+    <row r="557" ht="15.75" customHeight="1"/>
+    <row r="558" ht="15.75" customHeight="1"/>
+    <row r="559" ht="15.75" customHeight="1"/>
+    <row r="560" ht="15.75" customHeight="1"/>
+    <row r="561" ht="15.75" customHeight="1"/>
+    <row r="562" ht="15.75" customHeight="1"/>
+    <row r="563" ht="15.75" customHeight="1"/>
+    <row r="564" ht="15.75" customHeight="1"/>
+    <row r="565" ht="15.75" customHeight="1"/>
+    <row r="566" ht="15.75" customHeight="1"/>
+    <row r="567" ht="15.75" customHeight="1"/>
+    <row r="568" ht="15.75" customHeight="1"/>
+    <row r="569" ht="15.75" customHeight="1"/>
+    <row r="570" ht="15.75" customHeight="1"/>
+    <row r="571" ht="15.75" customHeight="1"/>
+    <row r="572" ht="15.75" customHeight="1"/>
+    <row r="573" ht="15.75" customHeight="1"/>
+    <row r="574" ht="15.75" customHeight="1"/>
+    <row r="575" ht="15.75" customHeight="1"/>
+    <row r="576" ht="15.75" customHeight="1"/>
+    <row r="577" ht="15.75" customHeight="1"/>
+    <row r="578" ht="15.75" customHeight="1"/>
+    <row r="579" ht="15.75" customHeight="1"/>
+    <row r="580" ht="15.75" customHeight="1"/>
+    <row r="581" ht="15.75" customHeight="1"/>
+    <row r="582" ht="15.75" customHeight="1"/>
+    <row r="583" ht="15.75" customHeight="1"/>
+    <row r="584" ht="15.75" customHeight="1"/>
+    <row r="585" ht="15.75" customHeight="1"/>
+    <row r="586" ht="15.75" customHeight="1"/>
+    <row r="587" ht="15.75" customHeight="1"/>
+    <row r="588" ht="15.75" customHeight="1"/>
+    <row r="589" ht="15.75" customHeight="1"/>
+    <row r="590" ht="15.75" customHeight="1"/>
+    <row r="591" ht="15.75" customHeight="1"/>
+    <row r="592" ht="15.75" customHeight="1"/>
+    <row r="593" ht="15.75" customHeight="1"/>
+    <row r="594" ht="15.75" customHeight="1"/>
+    <row r="595" ht="15.75" customHeight="1"/>
+    <row r="596" ht="15.75" customHeight="1"/>
+    <row r="597" ht="15.75" customHeight="1"/>
+    <row r="598" ht="15.75" customHeight="1"/>
+    <row r="599" ht="15.75" customHeight="1"/>
+    <row r="600" ht="15.75" customHeight="1"/>
+    <row r="601" ht="15.75" customHeight="1"/>
+    <row r="602" ht="15.75" customHeight="1"/>
+    <row r="603" ht="15.75" customHeight="1"/>
+    <row r="604" ht="15.75" customHeight="1"/>
+    <row r="605" ht="15.75" customHeight="1"/>
+    <row r="606" ht="15.75" customHeight="1"/>
+    <row r="607" ht="15.75" customHeight="1"/>
+    <row r="608" ht="15.75" customHeight="1"/>
+    <row r="609" ht="15.75" customHeight="1"/>
+    <row r="610" ht="15.75" customHeight="1"/>
+    <row r="611" ht="15.75" customHeight="1"/>
+    <row r="612" ht="15.75" customHeight="1"/>
+    <row r="613" ht="15.75" customHeight="1"/>
+    <row r="614" ht="15.75" customHeight="1"/>
+    <row r="615" ht="15.75" customHeight="1"/>
+    <row r="616" ht="15.75" customHeight="1"/>
+    <row r="617" ht="15.75" customHeight="1"/>
+    <row r="618" ht="15.75" customHeight="1"/>
+    <row r="619" ht="15.75" customHeight="1"/>
+    <row r="620" ht="15.75" customHeight="1"/>
+    <row r="621" ht="15.75" customHeight="1"/>
+    <row r="622" ht="15.75" customHeight="1"/>
+    <row r="623" ht="15.75" customHeight="1"/>
+    <row r="624" ht="15.75" customHeight="1"/>
+    <row r="625" ht="15.75" customHeight="1"/>
+    <row r="626" ht="15.75" customHeight="1"/>
+    <row r="627" ht="15.75" customHeight="1"/>
+    <row r="628" ht="15.75" customHeight="1"/>
+    <row r="629" ht="15.75" customHeight="1"/>
+    <row r="630" ht="15.75" customHeight="1"/>
+    <row r="631" ht="15.75" customHeight="1"/>
+    <row r="632" ht="15.75" customHeight="1"/>
+    <row r="633" ht="15.75" customHeight="1"/>
+    <row r="634" ht="15.75" customHeight="1"/>
+    <row r="635" ht="15.75" customHeight="1"/>
+    <row r="636" ht="15.75" customHeight="1"/>
+    <row r="637" ht="15.75" customHeight="1"/>
+    <row r="638" ht="15.75" customHeight="1"/>
+    <row r="639" ht="15.75" customHeight="1"/>
+    <row r="640" ht="15.75" customHeight="1"/>
+    <row r="641" ht="15.75" customHeight="1"/>
+    <row r="642" ht="15.75" customHeight="1"/>
+    <row r="643" ht="15.75" customHeight="1"/>
+    <row r="644" ht="15.75" customHeight="1"/>
+    <row r="645" ht="15.75" customHeight="1"/>
+    <row r="646" ht="15.75" customHeight="1"/>
+    <row r="647" ht="15.75" customHeight="1"/>
+    <row r="648" ht="15.75" customHeight="1"/>
+    <row r="649" ht="15.75" customHeight="1"/>
+    <row r="650" ht="15.75" customHeight="1"/>
+    <row r="651" ht="15.75" customHeight="1"/>
+    <row r="652" ht="15.75" customHeight="1"/>
+    <row r="653" ht="15.75" customHeight="1"/>
+    <row r="654" ht="15.75" customHeight="1"/>
+    <row r="655" ht="15.75" customHeight="1"/>
+    <row r="656" ht="15.75" customHeight="1"/>
+    <row r="657" ht="15.75" customHeight="1"/>
+    <row r="658" ht="15.75" customHeight="1"/>
+    <row r="659" ht="15.75" customHeight="1"/>
+    <row r="660" ht="15.75" customHeight="1"/>
+    <row r="661" ht="15.75" customHeight="1"/>
+    <row r="662" ht="15.75" customHeight="1"/>
+    <row r="663" ht="15.75" customHeight="1"/>
+    <row r="664" ht="15.75" customHeight="1"/>
+    <row r="665" ht="15.75" customHeight="1"/>
+    <row r="666" ht="15.75" customHeight="1"/>
+    <row r="667" ht="15.75" customHeight="1"/>
+    <row r="668" ht="15.75" customHeight="1"/>
+    <row r="669" ht="15.75" customHeight="1"/>
+    <row r="670" ht="15.75" customHeight="1"/>
+    <row r="671" ht="15.75" customHeight="1"/>
+    <row r="672" ht="15.75" customHeight="1"/>
+    <row r="673" ht="15.75" customHeight="1"/>
+    <row r="674" ht="15.75" customHeight="1"/>
+    <row r="675" ht="15.75" customHeight="1"/>
+    <row r="676" ht="15.75" customHeight="1"/>
+    <row r="677" ht="15.75" customHeight="1"/>
+    <row r="678" ht="15.75" customHeight="1"/>
+    <row r="679" ht="15.75" customHeight="1"/>
+    <row r="680" ht="15.75" customHeight="1"/>
+    <row r="681" ht="15.75" customHeight="1"/>
+    <row r="682" ht="15.75" customHeight="1"/>
+    <row r="683" ht="15.75" customHeight="1"/>
+    <row r="684" ht="15.75" customHeight="1"/>
+    <row r="685" ht="15.75" customHeight="1"/>
+    <row r="686" ht="15.75" customHeight="1"/>
+    <row r="687" ht="15.75" customHeight="1"/>
+    <row r="688" ht="15.75" customHeight="1"/>
+    <row r="689" ht="15.75" customHeight="1"/>
+    <row r="690" ht="15.75" customHeight="1"/>
+    <row r="691" ht="15.75" customHeight="1"/>
+    <row r="692" ht="15.75" customHeight="1"/>
+    <row r="693" ht="15.75" customHeight="1"/>
+    <row r="694" ht="15.75" customHeight="1"/>
+    <row r="695" ht="15.75" customHeight="1"/>
+    <row r="696" ht="15.75" customHeight="1"/>
+    <row r="697" ht="15.75" customHeight="1"/>
+    <row r="698" ht="15.75" customHeight="1"/>
+    <row r="699" ht="15.75" customHeight="1"/>
+    <row r="700" ht="15.75" customHeight="1"/>
+    <row r="701" ht="15.75" customHeight="1"/>
+    <row r="702" ht="15.75" customHeight="1"/>
+    <row r="703" ht="15.75" customHeight="1"/>
+    <row r="704" ht="15.75" customHeight="1"/>
+    <row r="705" ht="15.75" customHeight="1"/>
+    <row r="706" ht="15.75" customHeight="1"/>
+    <row r="707" ht="15.75" customHeight="1"/>
+    <row r="708" ht="15.75" customHeight="1"/>
+    <row r="709" ht="15.75" customHeight="1"/>
+    <row r="710" ht="15.75" customHeight="1"/>
+    <row r="711" ht="15.75" customHeight="1"/>
+    <row r="712" ht="15.75" customHeight="1"/>
+    <row r="713" ht="15.75" customHeight="1"/>
+    <row r="714" ht="15.75" customHeight="1"/>
+    <row r="715" ht="15.75" customHeight="1"/>
+    <row r="716" ht="15.75" customHeight="1"/>
+    <row r="717" ht="15.75" customHeight="1"/>
+    <row r="718" ht="15.75" customHeight="1"/>
+    <row r="719" ht="15.75" customHeight="1"/>
+    <row r="720" ht="15.75" customHeight="1"/>
+    <row r="721" ht="15.75" customHeight="1"/>
+    <row r="722" ht="15.75" customHeight="1"/>
+    <row r="723" ht="15.75" customHeight="1"/>
+    <row r="724" ht="15.75" customHeight="1"/>
+    <row r="725" ht="15.75" customHeight="1"/>
+    <row r="726" ht="15.75" customHeight="1"/>
+    <row r="727" ht="15.75" customHeight="1"/>
+    <row r="728" ht="15.75" customHeight="1"/>
+    <row r="729" ht="15.75" customHeight="1"/>
+    <row r="730" ht="15.75" customHeight="1"/>
+    <row r="731" ht="15.75" customHeight="1"/>
+    <row r="732" ht="15.75" customHeight="1"/>
+    <row r="733" ht="15.75" customHeight="1"/>
+    <row r="734" ht="15.75" customHeight="1"/>
+    <row r="735" ht="15.75" customHeight="1"/>
+    <row r="736" ht="15.75" customHeight="1"/>
+    <row r="737" ht="15.75" customHeight="1"/>
+    <row r="738" ht="15.75" customHeight="1"/>
+    <row r="739" ht="15.75" customHeight="1"/>
+    <row r="740" ht="15.75" customHeight="1"/>
+    <row r="741" ht="15.75" customHeight="1"/>
+    <row r="742" ht="15.75" customHeight="1"/>
+    <row r="743" ht="15.75" customHeight="1"/>
+    <row r="744" ht="15.75" customHeight="1"/>
+    <row r="745" ht="15.75" customHeight="1"/>
+    <row r="746" ht="15.75" customHeight="1"/>
+    <row r="747" ht="15.75" customHeight="1"/>
+    <row r="748" ht="15.75" customHeight="1"/>
+    <row r="749" ht="15.75" customHeight="1"/>
+    <row r="750" ht="15.75" customHeight="1"/>
+    <row r="751" ht="15.75" customHeight="1"/>
+    <row r="752" ht="15.75" customHeight="1"/>
+    <row r="753" ht="15.75" customHeight="1"/>
+    <row r="754" ht="15.75" customHeight="1"/>
+    <row r="755" ht="15.75" customHeight="1"/>
+    <row r="756" ht="15.75" customHeight="1"/>
+    <row r="757" ht="15.75" customHeight="1"/>
+    <row r="758" ht="15.75" customHeight="1"/>
+    <row r="759" ht="15.75" customHeight="1"/>
+    <row r="760" ht="15.75" customHeight="1"/>
+    <row r="761" ht="15.75" customHeight="1"/>
+    <row r="762" ht="15.75" customHeight="1"/>
+    <row r="763" ht="15.75" customHeight="1"/>
+    <row r="764" ht="15.75" customHeight="1"/>
+    <row r="765" ht="15.75" customHeight="1"/>
+    <row r="766" ht="15.75" customHeight="1"/>
+    <row r="767" ht="15.75" customHeight="1"/>
+    <row r="768" ht="15.75" customHeight="1"/>
+    <row r="769" ht="15.75" customHeight="1"/>
+    <row r="770" ht="15.75" customHeight="1"/>
+    <row r="771" ht="15.75" customHeight="1"/>
+    <row r="772" ht="15.75" customHeight="1"/>
+    <row r="773" ht="15.75" customHeight="1"/>
+    <row r="774" ht="15.75" customHeight="1"/>
+    <row r="775" ht="15.75" customHeight="1"/>
+    <row r="776" ht="15.75" customHeight="1"/>
+    <row r="777" ht="15.75" customHeight="1"/>
+    <row r="778" ht="15.75" customHeight="1"/>
+    <row r="779" ht="15.75" customHeight="1"/>
+    <row r="780" ht="15.75" customHeight="1"/>
+    <row r="781" ht="15.75" customHeight="1"/>
+    <row r="782" ht="15.75" customHeight="1"/>
+    <row r="783" ht="15.75" customHeight="1"/>
+    <row r="784" ht="15.75" customHeight="1"/>
+    <row r="785" ht="15.75" customHeight="1"/>
+    <row r="786" ht="15.75" customHeight="1"/>
+    <row r="787" ht="15.75" customHeight="1"/>
+    <row r="788" ht="15.75" customHeight="1"/>
+    <row r="789" ht="15.75" customHeight="1"/>
+    <row r="790" ht="15.75" customHeight="1"/>
+    <row r="791" ht="15.75" customHeight="1"/>
+    <row r="792" ht="15.75" customHeight="1"/>
+    <row r="793" ht="15.75" customHeight="1"/>
+    <row r="794" ht="15.75" customHeight="1"/>
+    <row r="795" ht="15.75" customHeight="1"/>
+    <row r="796" ht="15.75" customHeight="1"/>
+    <row r="797" ht="15.75" customHeight="1"/>
+    <row r="798" ht="15.75" customHeight="1"/>
+    <row r="799" ht="15.75" customHeight="1"/>
+    <row r="800" ht="15.75" customHeight="1"/>
+    <row r="801" ht="15.75" customHeight="1"/>
+    <row r="802" ht="15.75" customHeight="1"/>
+    <row r="803" ht="15.75" customHeight="1"/>
+    <row r="804" ht="15.75" customHeight="1"/>
+    <row r="805" ht="15.75" customHeight="1"/>
+    <row r="806" ht="15.75" customHeight="1"/>
+    <row r="807" ht="15.75" customHeight="1"/>
+    <row r="808" ht="15.75" customHeight="1"/>
+    <row r="809" ht="15.75" customHeight="1"/>
+    <row r="810" ht="15.75" customHeight="1"/>
+    <row r="811" ht="15.75" customHeight="1"/>
+    <row r="812" ht="15.75" customHeight="1"/>
+    <row r="813" ht="15.75" customHeight="1"/>
+    <row r="814" ht="15.75" customHeight="1"/>
+    <row r="815" ht="15.75" customHeight="1"/>
+    <row r="816" ht="15.75" customHeight="1"/>
+    <row r="817" ht="15.75" customHeight="1"/>
+    <row r="818" ht="15.75" customHeight="1"/>
+    <row r="819" ht="15.75" customHeight="1"/>
+    <row r="820" ht="15.75" customHeight="1"/>
+    <row r="821" ht="15.75" customHeight="1"/>
+    <row r="822" ht="15.75" customHeight="1"/>
+    <row r="823" ht="15.75" customHeight="1"/>
+    <row r="824" ht="15.75" customHeight="1"/>
+    <row r="825" ht="15.75" customHeight="1"/>
+    <row r="826" ht="15.75" customHeight="1"/>
+    <row r="827" ht="15.75" customHeight="1"/>
+    <row r="828" ht="15.75" customHeight="1"/>
+    <row r="829" ht="15.75" customHeight="1"/>
+    <row r="830" ht="15.75" customHeight="1"/>
+    <row r="831" ht="15.75" customHeight="1"/>
+    <row r="832" ht="15.75" customHeight="1"/>
+    <row r="833" ht="15.75" customHeight="1"/>
+    <row r="834" ht="15.75" customHeight="1"/>
+    <row r="835" ht="15.75" customHeight="1"/>
+    <row r="836" ht="15.75" customHeight="1"/>
+    <row r="837" ht="15.75" customHeight="1"/>
+    <row r="838" ht="15.75" customHeight="1"/>
+    <row r="839" ht="15.75" customHeight="1"/>
+    <row r="840" ht="15.75" customHeight="1"/>
+    <row r="841" ht="15.75" customHeight="1"/>
+    <row r="842" ht="15.75" customHeight="1"/>
+    <row r="843" ht="15.75" customHeight="1"/>
+    <row r="844" ht="15.75" customHeight="1"/>
+    <row r="845" ht="15.75" customHeight="1"/>
+    <row r="846" ht="15.75" customHeight="1"/>
+    <row r="847" ht="15.75" customHeight="1"/>
+    <row r="848" ht="15.75" customHeight="1"/>
+    <row r="849" ht="15.75" customHeight="1"/>
+    <row r="850" ht="15.75" customHeight="1"/>
+    <row r="851" ht="15.75" customHeight="1"/>
+    <row r="852" ht="15.75" customHeight="1"/>
+    <row r="853" ht="15.75" customHeight="1"/>
+    <row r="854" ht="15.75" customHeight="1"/>
+    <row r="855" ht="15.75" customHeight="1"/>
+    <row r="856" ht="15.75" customHeight="1"/>
+    <row r="857" ht="15.75" customHeight="1"/>
+    <row r="858" ht="15.75" customHeight="1"/>
+    <row r="859" ht="15.75" customHeight="1"/>
+    <row r="860" ht="15.75" customHeight="1"/>
+    <row r="861" ht="15.75" customHeight="1"/>
+    <row r="862" ht="15.75" customHeight="1"/>
+    <row r="863" ht="15.75" customHeight="1"/>
+    <row r="864" ht="15.75" customHeight="1"/>
+    <row r="865" ht="15.75" customHeight="1"/>
+    <row r="866" ht="15.75" customHeight="1"/>
+    <row r="867" ht="15.75" customHeight="1"/>
+    <row r="868" ht="15.75" customHeight="1"/>
+    <row r="869" ht="15.75" customHeight="1"/>
+    <row r="870" ht="15.75" customHeight="1"/>
+    <row r="871" ht="15.75" customHeight="1"/>
+    <row r="872" ht="15.75" customHeight="1"/>
+    <row r="873" ht="15.75" customHeight="1"/>
+    <row r="874" ht="15.75" customHeight="1"/>
+    <row r="875" ht="15.75" customHeight="1"/>
+    <row r="876" ht="15.75" customHeight="1"/>
+    <row r="877" ht="15.75" customHeight="1"/>
+    <row r="878" ht="15.75" customHeight="1"/>
+    <row r="879" ht="15.75" customHeight="1"/>
+    <row r="880" ht="15.75" customHeight="1"/>
+    <row r="881" ht="15.75" customHeight="1"/>
+    <row r="882" ht="15.75" customHeight="1"/>
+    <row r="883" ht="15.75" customHeight="1"/>
+    <row r="884" ht="15.75" customHeight="1"/>
+    <row r="885" ht="15.75" customHeight="1"/>
+    <row r="886" ht="15.75" customHeight="1"/>
+    <row r="887" ht="15.75" customHeight="1"/>
+    <row r="888" ht="15.75" customHeight="1"/>
+    <row r="889" ht="15.75" customHeight="1"/>
+    <row r="890" ht="15.75" customHeight="1"/>
+    <row r="891" ht="15.75" customHeight="1"/>
+    <row r="892" ht="15.75" customHeight="1"/>
+    <row r="893" ht="15.75" customHeight="1"/>
+    <row r="894" ht="15.75" customHeight="1"/>
+    <row r="895" ht="15.75" customHeight="1"/>
+    <row r="896" ht="15.75" customHeight="1"/>
+    <row r="897" ht="15.75" customHeight="1"/>
+    <row r="898" ht="15.75" customHeight="1"/>
+    <row r="899" ht="15.75" customHeight="1"/>
+    <row r="900" ht="15.75" customHeight="1"/>
+    <row r="901" ht="15.75" customHeight="1"/>
+    <row r="902" ht="15.75" customHeight="1"/>
+    <row r="903" ht="15.75" customHeight="1"/>
+    <row r="904" ht="15.75" customHeight="1"/>
+  </sheetData>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="landscape"/>

--- a/assets/xlsx/Cod4.xlsx
+++ b/assets/xlsx/Cod4.xlsx
@@ -13,6 +13,7 @@
     <sheet state="visible" name="Campaign Mission" sheetId="8" r:id="rId11"/>
     <sheet state="visible" name="CamouflageChallenge" sheetId="9" r:id="rId12"/>
     <sheet state="visible" name="CampaignChallenge" sheetId="10" r:id="rId13"/>
+    <sheet state="visible" name="MultiplayerChallenge" sheetId="11" r:id="rId14"/>
   </sheets>
   <definedNames>
     <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Weapon!$A$1:$Z$1000</definedName>
@@ -20,14 +21,14 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId14" roundtripDataChecksum="DbgTQkmdNG0gDUvyFZD9jn+1UkfQ/1IMvbpaZa9XvQU="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId15" roundtripDataChecksum="AMJQX1UkpTncpMPy4plqclLiz9+RuTJrRbyzZdy47rw="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1065" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1638" uniqueCount="469">
   <si>
     <t>name</t>
   </si>
@@ -592,6 +593,876 @@
   </si>
   <si>
     <t>Veteran</t>
+  </si>
+  <si>
+    <t>task</t>
+  </si>
+  <si>
+    <t>xp_reward</t>
+  </si>
+  <si>
+    <t>Radar Inbound</t>
+  </si>
+  <si>
+    <t>Boot Camp</t>
+  </si>
+  <si>
+    <t>Kill 3 enemies without dying and call in a UAV</t>
+  </si>
+  <si>
+    <t>Airstrike Inbound</t>
+  </si>
+  <si>
+    <t>Kill 5 enemies without dying and call in an Airstrike</t>
+  </si>
+  <si>
+    <t>Chopper Inbound</t>
+  </si>
+  <si>
+    <t>Kill 7 enemies without dying and call in a helicopter</t>
+  </si>
+  <si>
+    <t>Fly Swatter</t>
+  </si>
+  <si>
+    <t>Shoot Down an Enemy Helicopter</t>
+  </si>
+  <si>
+    <t>Marathon</t>
+  </si>
+  <si>
+    <t>Sprint for 26 miles total</t>
+  </si>
+  <si>
+    <t>Goodbye</t>
+  </si>
+  <si>
+    <t>Fall 30 feet or more to your death</t>
+  </si>
+  <si>
+    <t>Base Jump</t>
+  </si>
+  <si>
+    <t>Fall 15 feet or more and survive</t>
+  </si>
+  <si>
+    <t>Crouch Shot I</t>
+  </si>
+  <si>
+    <t>Kill 5 enemies while crouching</t>
+  </si>
+  <si>
+    <t>Crouch Shot II</t>
+  </si>
+  <si>
+    <t>Kill 15 enemies while crouching</t>
+  </si>
+  <si>
+    <t>Crouch Shot III</t>
+  </si>
+  <si>
+    <t>Kill 30 enemies while crouching</t>
+  </si>
+  <si>
+    <t>Prone Shot I</t>
+  </si>
+  <si>
+    <t>Kill 5 enemies while you are prone</t>
+  </si>
+  <si>
+    <t>Prone Shot II</t>
+  </si>
+  <si>
+    <t>Kill 15 enemies while you are prone</t>
+  </si>
+  <si>
+    <t>Prone Shot III</t>
+  </si>
+  <si>
+    <t>Kill 30 enemies while you are prone</t>
+  </si>
+  <si>
+    <t>Grenade Kill I</t>
+  </si>
+  <si>
+    <t>Kill 1 enemy with a grenade</t>
+  </si>
+  <si>
+    <t>Grenade Kill II</t>
+  </si>
+  <si>
+    <t>Kill 5 enemies with a grenade</t>
+  </si>
+  <si>
+    <t>Grenade Kill III</t>
+  </si>
+  <si>
+    <t>Kill 10 enemies with a grenade</t>
+  </si>
+  <si>
+    <t>Point Guard I</t>
+  </si>
+  <si>
+    <t>Get 5 assists</t>
+  </si>
+  <si>
+    <t>Point Guard II</t>
+  </si>
+  <si>
+    <t>Get 15 assists</t>
+  </si>
+  <si>
+    <t>Point Guard III</t>
+  </si>
+  <si>
+    <t>Get 30 assists</t>
+  </si>
+  <si>
+    <t>X-Ray Vision I</t>
+  </si>
+  <si>
+    <t>Kill 1 enemy through a wall using Deep Impact</t>
+  </si>
+  <si>
+    <t>X-Ray Vision II</t>
+  </si>
+  <si>
+    <t>Kill 5 enemies through a wall using Deep Impact</t>
+  </si>
+  <si>
+    <t>X-Ray Vision III</t>
+  </si>
+  <si>
+    <t>Kill 15 enemies through a wall using Deep Impact</t>
+  </si>
+  <si>
+    <t>Vandalism I</t>
+  </si>
+  <si>
+    <t>Blow up 1 car</t>
+  </si>
+  <si>
+    <t>Vandalism II</t>
+  </si>
+  <si>
+    <t>Blow up 5 cars</t>
+  </si>
+  <si>
+    <t>Vandalism III</t>
+  </si>
+  <si>
+    <t>Blow up 15 cars</t>
+  </si>
+  <si>
+    <t>Backdraft I</t>
+  </si>
+  <si>
+    <t>Destroy 1 enemy explosive device</t>
+  </si>
+  <si>
+    <t>Backdraft II</t>
+  </si>
+  <si>
+    <t>Destroy 5 enemy explosive devices</t>
+  </si>
+  <si>
+    <t>Backdraft III</t>
+  </si>
+  <si>
+    <t>Destroy 15 enemy explosive devices</t>
+  </si>
+  <si>
+    <t>Knife Vereran I</t>
+  </si>
+  <si>
+    <t>Kill 1 enemy with the knife melee attack</t>
+  </si>
+  <si>
+    <t>Knife Vereran II</t>
+  </si>
+  <si>
+    <t>Kill 5 enemies with the knife melee attack</t>
+  </si>
+  <si>
+    <t>Knife Vereran III</t>
+  </si>
+  <si>
+    <t>Kill 15 enemies with the knife melee attack</t>
+  </si>
+  <si>
+    <t>Free-For-All Victor I</t>
+  </si>
+  <si>
+    <t>Operations</t>
+  </si>
+  <si>
+    <t>Place in the top 3 in 1 Free for All match</t>
+  </si>
+  <si>
+    <t>Free-For-All Victor II</t>
+  </si>
+  <si>
+    <t>Place in the top 3 in 5 Free for All matches</t>
+  </si>
+  <si>
+    <t>Free-For-All Victor III</t>
+  </si>
+  <si>
+    <t>Place in the top 3 in 15 Free for All matches</t>
+  </si>
+  <si>
+    <t>Team Player I</t>
+  </si>
+  <si>
+    <t>Win 5 Team Deathmatch matches</t>
+  </si>
+  <si>
+    <t>Team Player II</t>
+  </si>
+  <si>
+    <t>Win 15 Team Deathmatch matches</t>
+  </si>
+  <si>
+    <t>Team Player III</t>
+  </si>
+  <si>
+    <t>Win 30 Team Deathmatch matches</t>
+  </si>
+  <si>
+    <t>Search And Destroy Victor I</t>
+  </si>
+  <si>
+    <t>Win 5 Search and Destroy matches</t>
+  </si>
+  <si>
+    <t>Search And Destroy Victor II</t>
+  </si>
+  <si>
+    <t>Win 15 Search and Destroy matches</t>
+  </si>
+  <si>
+    <t>Search And Destroy Victor III</t>
+  </si>
+  <si>
+    <t>Win 30 Search and Destroy matches</t>
+  </si>
+  <si>
+    <t>MVP Team Deathmatch</t>
+  </si>
+  <si>
+    <t>Get the top scrore overall in a Team Deathmatch game</t>
+  </si>
+  <si>
+    <t>Hardcore Team Player I</t>
+  </si>
+  <si>
+    <t>Win a Hardcore Team Deathmatch game</t>
+  </si>
+  <si>
+    <t>Hardcore Team Player II</t>
+  </si>
+  <si>
+    <t>Win 5 Hardcore Team Deathmatch games</t>
+  </si>
+  <si>
+    <t>Hardcore Team Player III</t>
+  </si>
+  <si>
+    <t>Win 15 Hardcore Team Deathmatch games</t>
+  </si>
+  <si>
+    <t>Sabotage Victor I</t>
+  </si>
+  <si>
+    <t>Win 5 Sabotage games</t>
+  </si>
+  <si>
+    <t>Sabotage Victor II</t>
+  </si>
+  <si>
+    <t>Win 20 Sabotage games</t>
+  </si>
+  <si>
+    <t>Sabotage Victor III</t>
+  </si>
+  <si>
+    <t>Win 50 Sabotage games</t>
+  </si>
+  <si>
+    <t>MVP Team Hardcore</t>
+  </si>
+  <si>
+    <t>Get the top score overall in a Team Hardcore game</t>
+  </si>
+  <si>
+    <t>Bomb Down</t>
+  </si>
+  <si>
+    <t>Kill the bomb carrier in either Search and Destroy or Sabotage</t>
+  </si>
+  <si>
+    <t>Bomb Defender</t>
+  </si>
+  <si>
+    <t>Kill the Bomb defuser in a Search and Destroy or Sabotage match</t>
+  </si>
+  <si>
+    <t>Bomb Planter</t>
+  </si>
+  <si>
+    <t>Kill the Bomb planter in a Search and Destroy or Sabotage match</t>
+  </si>
+  <si>
+    <t>Hero</t>
+  </si>
+  <si>
+    <t>Defuse a bomb in Search and Destroy</t>
+  </si>
+  <si>
+    <t>Last Man Standing</t>
+  </si>
+  <si>
+    <t>Be the last man standing in Search and Destroy</t>
+  </si>
+  <si>
+    <t>Claymore Shot</t>
+  </si>
+  <si>
+    <t>Killer</t>
+  </si>
+  <si>
+    <t>Kill 5 enemies using claymores</t>
+  </si>
+  <si>
+    <t>Assault Expert I</t>
+  </si>
+  <si>
+    <t>Kill 5 enemies with a headshot using an Assault Rifle</t>
+  </si>
+  <si>
+    <t>Assault Expert II</t>
+  </si>
+  <si>
+    <t>Kill 25 enemies with a headshot using an assault rifle</t>
+  </si>
+  <si>
+    <t>Assault Expert III</t>
+  </si>
+  <si>
+    <t>Kill 50 enemies with a headshot using an assault rifle</t>
+  </si>
+  <si>
+    <t>SMG Expert I</t>
+  </si>
+  <si>
+    <t>Kill 5 enemies with a headshot using an SMG</t>
+  </si>
+  <si>
+    <t>SMG Expert II</t>
+  </si>
+  <si>
+    <t>Kill 25 enemies with a headshot using an SMG</t>
+  </si>
+  <si>
+    <t>SMG Expert III</t>
+  </si>
+  <si>
+    <t>Kill 50 enemies with a headshot using an SMG</t>
+  </si>
+  <si>
+    <t>LMG Expert I</t>
+  </si>
+  <si>
+    <t>Kill 5 enemies with a headshot using an LMG</t>
+  </si>
+  <si>
+    <t>LMG Expert II</t>
+  </si>
+  <si>
+    <t>LMG Expert III</t>
+  </si>
+  <si>
+    <t>Kill 50 enemies with a headshot using an LMG</t>
+  </si>
+  <si>
+    <t>Last Stand Veteran I</t>
+  </si>
+  <si>
+    <t>Kill 1 enemy using Last Stand perk</t>
+  </si>
+  <si>
+    <t>Last Stand Veteran II</t>
+  </si>
+  <si>
+    <t>Kill 5 enemy using Last Stand perk</t>
+  </si>
+  <si>
+    <t>Last Stand Veteran III</t>
+  </si>
+  <si>
+    <t>Kill 15 enemy using Last Stand perk</t>
+  </si>
+  <si>
+    <t>Master Chef I</t>
+  </si>
+  <si>
+    <t>Kill 5 enemies using a cooked grenade</t>
+  </si>
+  <si>
+    <t>Master Chef II</t>
+  </si>
+  <si>
+    <t>Kill 10 enemies using a cooked grenade</t>
+  </si>
+  <si>
+    <t>Master Chef III</t>
+  </si>
+  <si>
+    <t>Kill 20 enemies using a cooked grenade</t>
+  </si>
+  <si>
+    <t>Airstrike Veteran I</t>
+  </si>
+  <si>
+    <t>Kill 5 enemies by calling in an airstrike</t>
+  </si>
+  <si>
+    <t>Airstrike Veteran II</t>
+  </si>
+  <si>
+    <t>Kill 15 enemies by calling in an airstrike</t>
+  </si>
+  <si>
+    <t>Airstrike Veteran III</t>
+  </si>
+  <si>
+    <t>Kill 30 enemies by calling in an airstrike</t>
+  </si>
+  <si>
+    <t>Chopper Veteran I</t>
+  </si>
+  <si>
+    <t>Kill 5 enemies by calling in a chopper</t>
+  </si>
+  <si>
+    <t>Chopper Veteran II</t>
+  </si>
+  <si>
+    <t>Kill 15 enemies by calling in a chopper</t>
+  </si>
+  <si>
+    <t>Chopper Veteran III</t>
+  </si>
+  <si>
+    <t>Kill 30 enemies by calling in a chopper</t>
+  </si>
+  <si>
+    <t>Stun Veteran I</t>
+  </si>
+  <si>
+    <t>Kill 5 enemies dazed by a stun grenade</t>
+  </si>
+  <si>
+    <t>Stun Veteran II</t>
+  </si>
+  <si>
+    <t>Kill 10 enemies dazed by a stun grenade</t>
+  </si>
+  <si>
+    <t>Stun Veteran III</t>
+  </si>
+  <si>
+    <t>Kill 25 enemies dazed by a stun grenade</t>
+  </si>
+  <si>
+    <t>Multi RPG</t>
+  </si>
+  <si>
+    <t>Kill 2 or more enemies with a single RPG shot</t>
+  </si>
+  <si>
+    <t>Martyrdom Veteran I</t>
+  </si>
+  <si>
+    <t>Kill 1 enemey with a dropped grenade from the Martyrdom perk</t>
+  </si>
+  <si>
+    <t>Martyrdom Veteran II</t>
+  </si>
+  <si>
+    <t>Kill 10 enemies with a dropped grenade from the Martyrdom perk</t>
+  </si>
+  <si>
+    <t>Martyrdom Veteran III</t>
+  </si>
+  <si>
+    <t>Kill 25 enemies with a dropped grenade from the Martyrdom perk</t>
+  </si>
+  <si>
+    <t>Stealth I</t>
+  </si>
+  <si>
+    <t>Kill 10 enemies with a silenced weapon</t>
+  </si>
+  <si>
+    <t>Stealth II</t>
+  </si>
+  <si>
+    <t>Kill 25 enemies with a silenced weapon</t>
+  </si>
+  <si>
+    <t>Stealth III</t>
+  </si>
+  <si>
+    <t>Kill 50 enemies with a silenced weapon</t>
+  </si>
+  <si>
+    <t>Invisible I</t>
+  </si>
+  <si>
+    <t>Kill 5 enemies with a sniper rifle</t>
+  </si>
+  <si>
+    <t>Invisible II</t>
+  </si>
+  <si>
+    <t>Kill 25 enemies with a sniper rifle</t>
+  </si>
+  <si>
+    <t>Invisible III</t>
+  </si>
+  <si>
+    <t>Kill 50 enemies with a sniper rifle</t>
+  </si>
+  <si>
+    <t>Counter Claymore I</t>
+  </si>
+  <si>
+    <t>Kill 1 enemy by shooting a claymore</t>
+  </si>
+  <si>
+    <t>Counter Claymore II</t>
+  </si>
+  <si>
+    <t>Kill 5 enemies by shooting a claymore</t>
+  </si>
+  <si>
+    <t>Counter Claymore III</t>
+  </si>
+  <si>
+    <t>Kill 10 enemies by shooting a claymore</t>
+  </si>
+  <si>
+    <t>Counter C-4 I</t>
+  </si>
+  <si>
+    <t>Kill 1 enemy by shooting a $-4</t>
+  </si>
+  <si>
+    <t>Counter C-4 II</t>
+  </si>
+  <si>
+    <t>Kill 5 enemies by shooting a C-4</t>
+  </si>
+  <si>
+    <t>Counter C-4 III</t>
+  </si>
+  <si>
+    <t>Kill 10 enemies by shooting a C-4</t>
+  </si>
+  <si>
+    <t>AirBourne</t>
+  </si>
+  <si>
+    <t>Humiliation</t>
+  </si>
+  <si>
+    <t>Get a 2 kill streak with bullets while in mid-air</t>
+  </si>
+  <si>
+    <t>Multi-Frag</t>
+  </si>
+  <si>
+    <t>kill 2 enemies or more with a single a frag grenade</t>
+  </si>
+  <si>
+    <t>CarpetBomb</t>
+  </si>
+  <si>
+    <t>Kill 5 enemies with a single airstrike.</t>
+  </si>
+  <si>
+    <t>MG Master</t>
+  </si>
+  <si>
+    <t>Get a 5 kill streak while mounted on a machine gun.</t>
+  </si>
+  <si>
+    <t>Slasher</t>
+  </si>
+  <si>
+    <t>Get a 3 melee kill streak without dying.</t>
+  </si>
+  <si>
+    <t>Multi C-4</t>
+  </si>
+  <si>
+    <t>Kill 2 enemies or more with a single C-4 pack.</t>
+  </si>
+  <si>
+    <t>Hot Potato I</t>
+  </si>
+  <si>
+    <t>Kill 1 enemy with a thrown back grenade.</t>
+  </si>
+  <si>
+    <t>Hot Potato II</t>
+  </si>
+  <si>
+    <t>Kill 5 enemies with a thrown back grenade.</t>
+  </si>
+  <si>
+    <t>Hot Potato III</t>
+  </si>
+  <si>
+    <t>Kill 15 enemies with a thrown back grenade.</t>
+  </si>
+  <si>
+    <t>Car Bomb</t>
+  </si>
+  <si>
+    <t>Kill 1 enemy by destroying a car.</t>
+  </si>
+  <si>
+    <t>BackStabber</t>
+  </si>
+  <si>
+    <t>Stab an enemy in the back with your knife.</t>
+  </si>
+  <si>
+    <t>Slow But Sure</t>
+  </si>
+  <si>
+    <t>Kill 1 enemy while stunned by a stun grenade.</t>
+  </si>
+  <si>
+    <t>Flashbang Veteran I</t>
+  </si>
+  <si>
+    <t>Kill 5 enemies dazed by a flashbang.</t>
+  </si>
+  <si>
+    <t>Flashbang Veteran II</t>
+  </si>
+  <si>
+    <t>Kill 10 enemies dazed by a flashbang.</t>
+  </si>
+  <si>
+    <t>Flashbang Veteran III</t>
+  </si>
+  <si>
+    <t>Kill 25 enemies dazed by a flashbang.</t>
+  </si>
+  <si>
+    <t>Misery Loves Company I</t>
+  </si>
+  <si>
+    <t>Kill yourself and 1 enemy by cooking a grenade but not throwing it.</t>
+  </si>
+  <si>
+    <t>Misery Loves Company II</t>
+  </si>
+  <si>
+    <t>Kill yourself and a 2nd enemy by cooking a grenade but not throwing it.</t>
+  </si>
+  <si>
+    <t>Misery Loves Company III</t>
+  </si>
+  <si>
+    <t>Kill yourself and 3rd enemy by cooking a grenade but not throwing it.</t>
+  </si>
+  <si>
+    <t>Ouch I</t>
+  </si>
+  <si>
+    <t>Kill an enemy with a rifle-mouted grenade laucher without detonation.</t>
+  </si>
+  <si>
+    <t>Ouch II</t>
+  </si>
+  <si>
+    <t>Kill 5 enemies with a rifle-mouted grenade laucher without detonation.</t>
+  </si>
+  <si>
+    <t>Ouch III</t>
+  </si>
+  <si>
+    <t>Kill 15 enemies with a rifle-mouted grenade laucher without detonation.</t>
+  </si>
+  <si>
+    <t>Rival</t>
+  </si>
+  <si>
+    <t>Kill the same enemy 5 times in a single match.</t>
+  </si>
+  <si>
+    <t>Cruelty</t>
+  </si>
+  <si>
+    <t>Kill an enemy, pick up his weapon, and kill the enemy with his weapon.</t>
+  </si>
+  <si>
+    <t>Think Fast</t>
+  </si>
+  <si>
+    <t>Finish an enemy off by hitting an enemy with a Frag grenade (direct Impact).</t>
+  </si>
+  <si>
+    <t>Think Fast Stun</t>
+  </si>
+  <si>
+    <t>Finish an enemy off by hitting an enemy with a stun grenade (direct Impact).</t>
+  </si>
+  <si>
+    <t>Think Fast Flash</t>
+  </si>
+  <si>
+    <t>Finish an enemy off by hitting an enemy with a flash grenade (direct Impact).</t>
+  </si>
+  <si>
+    <t>Return to Sender</t>
+  </si>
+  <si>
+    <t>Kill an enemy by shooting his C-4.</t>
+  </si>
+  <si>
+    <t>BlindFire</t>
+  </si>
+  <si>
+    <t>Kill an enemy when you are still dazed by a flashbang.</t>
+  </si>
+  <si>
+    <t>The Brink</t>
+  </si>
+  <si>
+    <t>Elite</t>
+  </si>
+  <si>
+    <t>Get a kill streak of 3 or more while near death.</t>
+  </si>
+  <si>
+    <t>Collateral Damage</t>
+  </si>
+  <si>
+    <t>Kill 2 enemies with one sniper rifle bullet.</t>
+  </si>
+  <si>
+    <t>The Edge I</t>
+  </si>
+  <si>
+    <t>Get the last kill in a match.</t>
+  </si>
+  <si>
+    <t>The Edge II</t>
+  </si>
+  <si>
+    <t>Get the last kill in a match 5 times.</t>
+  </si>
+  <si>
+    <t>The Edge III</t>
+  </si>
+  <si>
+    <t>Get the last kill in a match 19 times.</t>
+  </si>
+  <si>
+    <t>Flawless</t>
+  </si>
+  <si>
+    <t>Play the entire full length match without dying.</t>
+  </si>
+  <si>
+    <t>Tango Down</t>
+  </si>
+  <si>
+    <t>Kill every member of the enemy team (4-player mininum).</t>
+  </si>
+  <si>
+    <t>Hard Landing</t>
+  </si>
+  <si>
+    <t>Kill an enemy in mid-air.</t>
+  </si>
+  <si>
+    <t>Extreme Cruelty</t>
+  </si>
+  <si>
+    <t>Kill every member of the opposing team without dying.</t>
+  </si>
+  <si>
+    <t>Fast Swap</t>
+  </si>
+  <si>
+    <t>Hurt an enemy with a primary weapon, and then finish them of with a pitol.</t>
+  </si>
+  <si>
+    <t>Star Player</t>
+  </si>
+  <si>
+    <t>Play an entire match within any game mode with a 5:1 kill death ratio.</t>
+  </si>
+  <si>
+    <t>How the ?</t>
+  </si>
+  <si>
+    <t>Kill an enemy using Deep Impact to shoot an explosive through a wall.</t>
+  </si>
+  <si>
+    <t>Dominos</t>
+  </si>
+  <si>
+    <t>Kill an enmemy by setting off a chain reaction of explosives.</t>
+  </si>
+  <si>
+    <t>No Secrets</t>
+  </si>
+  <si>
+    <t>Call in a UAV 3 times in a single match.</t>
+  </si>
+  <si>
+    <t>Afterburner</t>
+  </si>
+  <si>
+    <t>Call in an airstrike 2 times in a single match.</t>
+  </si>
+  <si>
+    <t>Air Superiority</t>
+  </si>
+  <si>
+    <t>Call in a helicopter 2 times in a single match.</t>
+  </si>
+  <si>
+    <t>Fearless</t>
+  </si>
+  <si>
+    <t>Kill 10 enemies in a single match without dying.</t>
+  </si>
+  <si>
+    <t>Counter-MVP</t>
+  </si>
+  <si>
+    <t>Kill the #1 player on the opposing team 10 times in a single match.</t>
+  </si>
+  <si>
+    <t>Invincible</t>
+  </si>
+  <si>
+    <t>Get 5 health regenerations from an enemy damage, in a row without dying.</t>
+  </si>
+  <si>
+    <t>Survivalist</t>
+  </si>
+  <si>
+    <t>Survive for 5 consecutive minutes.</t>
   </si>
 </sst>
 </file>
@@ -681,6 +1552,10 @@
 </file>
 
 <file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
@@ -5234,8 +6109,9 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="2" width="25.25"/>
-    <col customWidth="1" min="3" max="3" width="10.13"/>
+    <col customWidth="1" min="1" max="1" width="25.25"/>
+    <col customWidth="1" min="2" max="2" width="10.13"/>
+    <col customWidth="1" min="3" max="3" width="25.25"/>
     <col customWidth="1" min="4" max="22" width="10.63"/>
   </cols>
   <sheetData>
@@ -5244,10 +6120,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>172</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>155</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>173</v>
@@ -5258,10 +6134,10 @@
         <v>118</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>118</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>174</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>175</v>
@@ -5272,10 +6148,10 @@
         <v>120</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>120</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>174</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>175</v>
@@ -5286,10 +6162,10 @@
         <v>122</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>122</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>174</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>175</v>
@@ -5300,10 +6176,10 @@
         <v>124</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>124</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>174</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>175</v>
@@ -5314,10 +6190,10 @@
         <v>126</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>126</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>174</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>175</v>
@@ -5328,10 +6204,10 @@
         <v>128</v>
       </c>
       <c r="B7" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>128</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>174</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>175</v>
@@ -5342,10 +6218,10 @@
         <v>129</v>
       </c>
       <c r="B8" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>129</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>174</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>175</v>
@@ -5356,10 +6232,10 @@
         <v>131</v>
       </c>
       <c r="B9" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>131</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>174</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>175</v>
@@ -5370,10 +6246,10 @@
         <v>132</v>
       </c>
       <c r="B10" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>132</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>174</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>175</v>
@@ -5384,10 +6260,10 @@
         <v>134</v>
       </c>
       <c r="B11" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>134</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>174</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>175</v>
@@ -5398,10 +6274,10 @@
         <v>136</v>
       </c>
       <c r="B12" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>136</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>174</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>175</v>
@@ -5412,10 +6288,10 @@
         <v>138</v>
       </c>
       <c r="B13" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>138</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>174</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>175</v>
@@ -5426,10 +6302,10 @@
         <v>141</v>
       </c>
       <c r="B14" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="C14" s="2" t="s">
         <v>141</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>174</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>175</v>
@@ -5440,10 +6316,10 @@
         <v>144</v>
       </c>
       <c r="B15" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="C15" s="2" t="s">
         <v>144</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>174</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>175</v>
@@ -5454,10 +6330,10 @@
         <v>146</v>
       </c>
       <c r="B16" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="C16" s="2" t="s">
         <v>146</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>174</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>175</v>
@@ -5468,10 +6344,10 @@
         <v>147</v>
       </c>
       <c r="B17" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="C17" s="2" t="s">
         <v>147</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>174</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>175</v>
@@ -5482,10 +6358,10 @@
         <v>149</v>
       </c>
       <c r="B18" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="C18" s="2" t="s">
         <v>149</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>174</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>175</v>
@@ -5496,10 +6372,10 @@
         <v>150</v>
       </c>
       <c r="B19" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="C19" s="2" t="s">
         <v>150</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>174</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>175</v>
@@ -5510,10 +6386,10 @@
         <v>151</v>
       </c>
       <c r="B20" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="C20" s="2" t="s">
         <v>151</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>174</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>175</v>
@@ -5524,10 +6400,10 @@
         <v>152</v>
       </c>
       <c r="B21" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="C21" s="2" t="s">
         <v>152</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>174</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>175</v>
@@ -5538,10 +6414,10 @@
         <v>153</v>
       </c>
       <c r="B22" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="C22" s="2" t="s">
         <v>153</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>174</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>175</v>
@@ -5552,10 +6428,10 @@
         <v>118</v>
       </c>
       <c r="B23" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="C23" s="2" t="s">
         <v>118</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>174</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>176</v>
@@ -5566,10 +6442,10 @@
         <v>120</v>
       </c>
       <c r="B24" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="C24" s="2" t="s">
         <v>120</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>174</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>176</v>
@@ -5580,10 +6456,10 @@
         <v>122</v>
       </c>
       <c r="B25" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="C25" s="2" t="s">
         <v>122</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>174</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>176</v>
@@ -5594,10 +6470,10 @@
         <v>124</v>
       </c>
       <c r="B26" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="C26" s="2" t="s">
         <v>124</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>174</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>176</v>
@@ -5608,10 +6484,10 @@
         <v>126</v>
       </c>
       <c r="B27" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="C27" s="2" t="s">
         <v>126</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>174</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>176</v>
@@ -5622,10 +6498,10 @@
         <v>128</v>
       </c>
       <c r="B28" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="C28" s="2" t="s">
         <v>128</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>174</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>176</v>
@@ -5636,10 +6512,10 @@
         <v>129</v>
       </c>
       <c r="B29" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="C29" s="2" t="s">
         <v>129</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>174</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>176</v>
@@ -5650,10 +6526,10 @@
         <v>131</v>
       </c>
       <c r="B30" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="C30" s="2" t="s">
         <v>131</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>174</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>176</v>
@@ -5664,10 +6540,10 @@
         <v>132</v>
       </c>
       <c r="B31" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="C31" s="2" t="s">
         <v>132</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>174</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>176</v>
@@ -5678,10 +6554,10 @@
         <v>134</v>
       </c>
       <c r="B32" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="C32" s="2" t="s">
         <v>134</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>174</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>176</v>
@@ -5692,10 +6568,10 @@
         <v>136</v>
       </c>
       <c r="B33" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="C33" s="2" t="s">
         <v>136</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>174</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>176</v>
@@ -5706,10 +6582,10 @@
         <v>138</v>
       </c>
       <c r="B34" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="C34" s="2" t="s">
         <v>138</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>174</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>176</v>
@@ -5720,10 +6596,10 @@
         <v>141</v>
       </c>
       <c r="B35" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="C35" s="2" t="s">
         <v>141</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>174</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>176</v>
@@ -5734,10 +6610,10 @@
         <v>144</v>
       </c>
       <c r="B36" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="C36" s="2" t="s">
         <v>144</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>174</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>176</v>
@@ -5748,10 +6624,10 @@
         <v>146</v>
       </c>
       <c r="B37" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="C37" s="2" t="s">
         <v>146</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>174</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>176</v>
@@ -5762,10 +6638,10 @@
         <v>147</v>
       </c>
       <c r="B38" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="C38" s="2" t="s">
         <v>147</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>174</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>176</v>
@@ -5776,10 +6652,10 @@
         <v>149</v>
       </c>
       <c r="B39" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="C39" s="2" t="s">
         <v>149</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>174</v>
       </c>
       <c r="D39" s="2" t="s">
         <v>176</v>
@@ -5790,10 +6666,10 @@
         <v>150</v>
       </c>
       <c r="B40" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="C40" s="2" t="s">
         <v>150</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>174</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>176</v>
@@ -5804,10 +6680,10 @@
         <v>151</v>
       </c>
       <c r="B41" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="C41" s="2" t="s">
         <v>151</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>174</v>
       </c>
       <c r="D41" s="2" t="s">
         <v>176</v>
@@ -5818,10 +6694,10 @@
         <v>152</v>
       </c>
       <c r="B42" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="C42" s="2" t="s">
         <v>152</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>174</v>
       </c>
       <c r="D42" s="2" t="s">
         <v>176</v>
@@ -5832,10 +6708,10 @@
         <v>153</v>
       </c>
       <c r="B43" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="C43" s="2" t="s">
         <v>153</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>174</v>
       </c>
       <c r="D43" s="2" t="s">
         <v>176</v>
@@ -5846,10 +6722,10 @@
         <v>118</v>
       </c>
       <c r="B44" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="C44" s="2" t="s">
         <v>118</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>174</v>
       </c>
       <c r="D44" s="2" t="s">
         <v>177</v>
@@ -5860,10 +6736,10 @@
         <v>120</v>
       </c>
       <c r="B45" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="C45" s="2" t="s">
         <v>120</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>174</v>
       </c>
       <c r="D45" s="2" t="s">
         <v>177</v>
@@ -5874,10 +6750,10 @@
         <v>122</v>
       </c>
       <c r="B46" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="C46" s="2" t="s">
         <v>122</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>174</v>
       </c>
       <c r="D46" s="2" t="s">
         <v>177</v>
@@ -5888,10 +6764,10 @@
         <v>124</v>
       </c>
       <c r="B47" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="C47" s="2" t="s">
         <v>124</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>174</v>
       </c>
       <c r="D47" s="2" t="s">
         <v>177</v>
@@ -5902,10 +6778,10 @@
         <v>126</v>
       </c>
       <c r="B48" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="C48" s="2" t="s">
         <v>126</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>174</v>
       </c>
       <c r="D48" s="2" t="s">
         <v>177</v>
@@ -5916,10 +6792,10 @@
         <v>128</v>
       </c>
       <c r="B49" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="C49" s="2" t="s">
         <v>128</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>174</v>
       </c>
       <c r="D49" s="2" t="s">
         <v>177</v>
@@ -5930,10 +6806,10 @@
         <v>129</v>
       </c>
       <c r="B50" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="C50" s="2" t="s">
         <v>129</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>174</v>
       </c>
       <c r="D50" s="2" t="s">
         <v>177</v>
@@ -5944,10 +6820,10 @@
         <v>131</v>
       </c>
       <c r="B51" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="C51" s="2" t="s">
         <v>131</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>174</v>
       </c>
       <c r="D51" s="2" t="s">
         <v>177</v>
@@ -5958,10 +6834,10 @@
         <v>132</v>
       </c>
       <c r="B52" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="C52" s="2" t="s">
         <v>132</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>174</v>
       </c>
       <c r="D52" s="2" t="s">
         <v>177</v>
@@ -5972,10 +6848,10 @@
         <v>134</v>
       </c>
       <c r="B53" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="C53" s="2" t="s">
         <v>134</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>174</v>
       </c>
       <c r="D53" s="2" t="s">
         <v>177</v>
@@ -5986,10 +6862,10 @@
         <v>136</v>
       </c>
       <c r="B54" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="C54" s="2" t="s">
         <v>136</v>
-      </c>
-      <c r="C54" s="2" t="s">
-        <v>174</v>
       </c>
       <c r="D54" s="2" t="s">
         <v>177</v>
@@ -6000,10 +6876,10 @@
         <v>138</v>
       </c>
       <c r="B55" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="C55" s="2" t="s">
         <v>138</v>
-      </c>
-      <c r="C55" s="2" t="s">
-        <v>174</v>
       </c>
       <c r="D55" s="2" t="s">
         <v>177</v>
@@ -6014,10 +6890,10 @@
         <v>141</v>
       </c>
       <c r="B56" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="C56" s="2" t="s">
         <v>141</v>
-      </c>
-      <c r="C56" s="2" t="s">
-        <v>174</v>
       </c>
       <c r="D56" s="2" t="s">
         <v>177</v>
@@ -6028,10 +6904,10 @@
         <v>144</v>
       </c>
       <c r="B57" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="C57" s="2" t="s">
         <v>144</v>
-      </c>
-      <c r="C57" s="2" t="s">
-        <v>174</v>
       </c>
       <c r="D57" s="2" t="s">
         <v>177</v>
@@ -6042,10 +6918,10 @@
         <v>146</v>
       </c>
       <c r="B58" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="C58" s="2" t="s">
         <v>146</v>
-      </c>
-      <c r="C58" s="2" t="s">
-        <v>174</v>
       </c>
       <c r="D58" s="2" t="s">
         <v>177</v>
@@ -6056,10 +6932,10 @@
         <v>147</v>
       </c>
       <c r="B59" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="C59" s="2" t="s">
         <v>147</v>
-      </c>
-      <c r="C59" s="2" t="s">
-        <v>174</v>
       </c>
       <c r="D59" s="2" t="s">
         <v>177</v>
@@ -6070,10 +6946,10 @@
         <v>149</v>
       </c>
       <c r="B60" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="C60" s="2" t="s">
         <v>149</v>
-      </c>
-      <c r="C60" s="2" t="s">
-        <v>174</v>
       </c>
       <c r="D60" s="2" t="s">
         <v>177</v>
@@ -6084,10 +6960,10 @@
         <v>150</v>
       </c>
       <c r="B61" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="C61" s="2" t="s">
         <v>150</v>
-      </c>
-      <c r="C61" s="2" t="s">
-        <v>174</v>
       </c>
       <c r="D61" s="2" t="s">
         <v>177</v>
@@ -6098,10 +6974,10 @@
         <v>151</v>
       </c>
       <c r="B62" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="C62" s="2" t="s">
         <v>151</v>
-      </c>
-      <c r="C62" s="2" t="s">
-        <v>174</v>
       </c>
       <c r="D62" s="2" t="s">
         <v>177</v>
@@ -6112,10 +6988,10 @@
         <v>152</v>
       </c>
       <c r="B63" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="C63" s="2" t="s">
         <v>152</v>
-      </c>
-      <c r="C63" s="2" t="s">
-        <v>174</v>
       </c>
       <c r="D63" s="2" t="s">
         <v>177</v>
@@ -6126,10 +7002,10 @@
         <v>153</v>
       </c>
       <c r="B64" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="C64" s="2" t="s">
         <v>153</v>
-      </c>
-      <c r="C64" s="2" t="s">
-        <v>174</v>
       </c>
       <c r="D64" s="2" t="s">
         <v>177</v>
@@ -6140,10 +7016,10 @@
         <v>118</v>
       </c>
       <c r="B65" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="C65" s="2" t="s">
         <v>118</v>
-      </c>
-      <c r="C65" s="2" t="s">
-        <v>174</v>
       </c>
       <c r="D65" s="2" t="s">
         <v>178</v>
@@ -6154,10 +7030,10 @@
         <v>120</v>
       </c>
       <c r="B66" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="C66" s="2" t="s">
         <v>120</v>
-      </c>
-      <c r="C66" s="2" t="s">
-        <v>174</v>
       </c>
       <c r="D66" s="2" t="s">
         <v>178</v>
@@ -6168,10 +7044,10 @@
         <v>122</v>
       </c>
       <c r="B67" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="C67" s="2" t="s">
         <v>122</v>
-      </c>
-      <c r="C67" s="2" t="s">
-        <v>174</v>
       </c>
       <c r="D67" s="2" t="s">
         <v>178</v>
@@ -6182,10 +7058,10 @@
         <v>124</v>
       </c>
       <c r="B68" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="C68" s="2" t="s">
         <v>124</v>
-      </c>
-      <c r="C68" s="2" t="s">
-        <v>174</v>
       </c>
       <c r="D68" s="2" t="s">
         <v>178</v>
@@ -6196,10 +7072,10 @@
         <v>126</v>
       </c>
       <c r="B69" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="C69" s="2" t="s">
         <v>126</v>
-      </c>
-      <c r="C69" s="2" t="s">
-        <v>174</v>
       </c>
       <c r="D69" s="2" t="s">
         <v>178</v>
@@ -6210,10 +7086,10 @@
         <v>128</v>
       </c>
       <c r="B70" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="C70" s="2" t="s">
         <v>128</v>
-      </c>
-      <c r="C70" s="2" t="s">
-        <v>174</v>
       </c>
       <c r="D70" s="2" t="s">
         <v>178</v>
@@ -6224,10 +7100,10 @@
         <v>129</v>
       </c>
       <c r="B71" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="C71" s="2" t="s">
         <v>129</v>
-      </c>
-      <c r="C71" s="2" t="s">
-        <v>174</v>
       </c>
       <c r="D71" s="2" t="s">
         <v>178</v>
@@ -6238,10 +7114,10 @@
         <v>131</v>
       </c>
       <c r="B72" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="C72" s="2" t="s">
         <v>131</v>
-      </c>
-      <c r="C72" s="2" t="s">
-        <v>174</v>
       </c>
       <c r="D72" s="2" t="s">
         <v>178</v>
@@ -6252,10 +7128,10 @@
         <v>132</v>
       </c>
       <c r="B73" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="C73" s="2" t="s">
         <v>132</v>
-      </c>
-      <c r="C73" s="2" t="s">
-        <v>174</v>
       </c>
       <c r="D73" s="2" t="s">
         <v>178</v>
@@ -6266,10 +7142,10 @@
         <v>134</v>
       </c>
       <c r="B74" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="C74" s="2" t="s">
         <v>134</v>
-      </c>
-      <c r="C74" s="2" t="s">
-        <v>174</v>
       </c>
       <c r="D74" s="2" t="s">
         <v>178</v>
@@ -6280,10 +7156,10 @@
         <v>136</v>
       </c>
       <c r="B75" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="C75" s="2" t="s">
         <v>136</v>
-      </c>
-      <c r="C75" s="2" t="s">
-        <v>174</v>
       </c>
       <c r="D75" s="2" t="s">
         <v>178</v>
@@ -6294,10 +7170,10 @@
         <v>138</v>
       </c>
       <c r="B76" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="C76" s="2" t="s">
         <v>138</v>
-      </c>
-      <c r="C76" s="2" t="s">
-        <v>174</v>
       </c>
       <c r="D76" s="2" t="s">
         <v>178</v>
@@ -6308,10 +7184,10 @@
         <v>141</v>
       </c>
       <c r="B77" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="C77" s="2" t="s">
         <v>141</v>
-      </c>
-      <c r="C77" s="2" t="s">
-        <v>174</v>
       </c>
       <c r="D77" s="2" t="s">
         <v>178</v>
@@ -6322,10 +7198,10 @@
         <v>144</v>
       </c>
       <c r="B78" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="C78" s="2" t="s">
         <v>144</v>
-      </c>
-      <c r="C78" s="2" t="s">
-        <v>174</v>
       </c>
       <c r="D78" s="2" t="s">
         <v>178</v>
@@ -6336,10 +7212,10 @@
         <v>146</v>
       </c>
       <c r="B79" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="C79" s="2" t="s">
         <v>146</v>
-      </c>
-      <c r="C79" s="2" t="s">
-        <v>174</v>
       </c>
       <c r="D79" s="2" t="s">
         <v>178</v>
@@ -6350,10 +7226,10 @@
         <v>147</v>
       </c>
       <c r="B80" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="C80" s="2" t="s">
         <v>147</v>
-      </c>
-      <c r="C80" s="2" t="s">
-        <v>174</v>
       </c>
       <c r="D80" s="2" t="s">
         <v>178</v>
@@ -6364,10 +7240,10 @@
         <v>149</v>
       </c>
       <c r="B81" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="C81" s="2" t="s">
         <v>149</v>
-      </c>
-      <c r="C81" s="2" t="s">
-        <v>174</v>
       </c>
       <c r="D81" s="2" t="s">
         <v>178</v>
@@ -6378,10 +7254,10 @@
         <v>150</v>
       </c>
       <c r="B82" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="C82" s="2" t="s">
         <v>150</v>
-      </c>
-      <c r="C82" s="2" t="s">
-        <v>174</v>
       </c>
       <c r="D82" s="2" t="s">
         <v>178</v>
@@ -6392,10 +7268,10 @@
         <v>151</v>
       </c>
       <c r="B83" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="C83" s="2" t="s">
         <v>151</v>
-      </c>
-      <c r="C83" s="2" t="s">
-        <v>174</v>
       </c>
       <c r="D83" s="2" t="s">
         <v>178</v>
@@ -6406,10 +7282,10 @@
         <v>152</v>
       </c>
       <c r="B84" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="C84" s="2" t="s">
         <v>152</v>
-      </c>
-      <c r="C84" s="2" t="s">
-        <v>174</v>
       </c>
       <c r="D84" s="2" t="s">
         <v>178</v>
@@ -6420,10 +7296,10 @@
         <v>153</v>
       </c>
       <c r="B85" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="C85" s="2" t="s">
         <v>153</v>
-      </c>
-      <c r="C85" s="2" t="s">
-        <v>174</v>
       </c>
       <c r="D85" s="2" t="s">
         <v>178</v>
@@ -7252,6 +8128,2890 @@
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="landscape"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="24.63"/>
+    <col customWidth="1" min="2" max="3" width="10.13"/>
+    <col customWidth="1" min="4" max="4" width="63.0"/>
+    <col customWidth="1" min="5" max="5" width="9.5"/>
+    <col customWidth="1" min="6" max="6" width="11.13"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="E2" s="3">
+        <v>50.0</v>
+      </c>
+      <c r="F2" s="3">
+        <v>9.0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="E3" s="3">
+        <v>50.0</v>
+      </c>
+      <c r="F3" s="3">
+        <v>9.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="E4" s="3">
+        <v>50.0</v>
+      </c>
+      <c r="F4" s="3">
+        <v>9.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="E5" s="3">
+        <v>250.0</v>
+      </c>
+      <c r="F5" s="3">
+        <v>9.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="E6" s="3">
+        <v>250.0</v>
+      </c>
+      <c r="F6" s="3">
+        <v>12.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="E7" s="3">
+        <v>250.0</v>
+      </c>
+      <c r="F7" s="3">
+        <v>12.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="E8" s="3">
+        <v>250.0</v>
+      </c>
+      <c r="F8" s="3">
+        <v>12.0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="E9" s="3">
+        <v>50.0</v>
+      </c>
+      <c r="F9" s="3">
+        <v>12.0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="E10" s="3">
+        <v>100.0</v>
+      </c>
+      <c r="F10" s="3">
+        <v>12.0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="E11" s="3">
+        <v>250.0</v>
+      </c>
+      <c r="F11" s="3">
+        <v>12.0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="E12" s="3">
+        <v>50.0</v>
+      </c>
+      <c r="F12" s="3">
+        <v>15.0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="E13" s="3">
+        <v>100.0</v>
+      </c>
+      <c r="F13" s="3">
+        <v>15.0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="E14" s="3">
+        <v>250.0</v>
+      </c>
+      <c r="F14" s="3">
+        <v>15.0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="E15" s="3">
+        <v>50.0</v>
+      </c>
+      <c r="F15" s="3">
+        <v>15.0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="E16" s="3">
+        <v>150.0</v>
+      </c>
+      <c r="F16" s="3">
+        <v>15.0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="E17" s="3">
+        <v>250.0</v>
+      </c>
+      <c r="F17" s="3">
+        <v>15.0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="E18" s="3">
+        <v>50.0</v>
+      </c>
+      <c r="F18" s="3">
+        <v>15.0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="E19" s="3">
+        <v>150.0</v>
+      </c>
+      <c r="F19" s="3">
+        <v>15.0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="E20" s="3">
+        <v>250.0</v>
+      </c>
+      <c r="F20" s="3">
+        <v>15.0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="E21" s="3">
+        <v>50.0</v>
+      </c>
+      <c r="F21" s="3">
+        <v>15.0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="E22" s="3">
+        <v>150.0</v>
+      </c>
+      <c r="F22" s="3">
+        <v>15.0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="E23" s="3">
+        <v>250.0</v>
+      </c>
+      <c r="F23" s="3">
+        <v>15.0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="E24" s="3">
+        <v>50.0</v>
+      </c>
+      <c r="F24" s="3">
+        <v>18.0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="E25" s="3">
+        <v>100.0</v>
+      </c>
+      <c r="F25" s="3">
+        <v>18.0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="E26" s="3">
+        <v>250.0</v>
+      </c>
+      <c r="F26" s="3">
+        <v>18.0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="E27" s="3">
+        <v>50.0</v>
+      </c>
+      <c r="F27" s="3">
+        <v>18.0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="E28" s="3">
+        <v>100.0</v>
+      </c>
+      <c r="F28" s="3">
+        <v>18.0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="E29" s="3">
+        <v>250.0</v>
+      </c>
+      <c r="F29" s="3">
+        <v>18.0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="E30" s="3">
+        <v>50.0</v>
+      </c>
+      <c r="F30" s="3">
+        <v>18.0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="E31" s="3">
+        <v>100.0</v>
+      </c>
+      <c r="F31" s="3">
+        <v>18.0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="E32" s="3">
+        <v>250.0</v>
+      </c>
+      <c r="F32" s="3">
+        <v>18.0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="E33" s="3">
+        <v>50.0</v>
+      </c>
+      <c r="F33" s="3">
+        <v>21.0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="E34" s="3">
+        <v>100.0</v>
+      </c>
+      <c r="F34" s="3">
+        <v>21.0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="E35" s="3">
+        <v>250.0</v>
+      </c>
+      <c r="F35" s="3">
+        <v>21.0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="E36" s="3">
+        <v>50.0</v>
+      </c>
+      <c r="F36" s="3">
+        <v>21.0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="E37" s="3">
+        <v>100.0</v>
+      </c>
+      <c r="F37" s="3">
+        <v>21.0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="E38" s="3">
+        <v>250.0</v>
+      </c>
+      <c r="F38" s="3">
+        <v>21.0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="E39" s="3">
+        <v>50.0</v>
+      </c>
+      <c r="F39" s="3">
+        <v>21.0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="E40" s="3">
+        <v>100.0</v>
+      </c>
+      <c r="F40" s="3">
+        <v>21.0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="E41" s="3">
+        <v>250.0</v>
+      </c>
+      <c r="F41" s="3">
+        <v>21.0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="E42" s="3">
+        <v>250.0</v>
+      </c>
+      <c r="F42" s="3">
+        <v>21.0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="E43" s="3">
+        <v>50.0</v>
+      </c>
+      <c r="F43" s="3">
+        <v>24.0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="E44" s="3">
+        <v>100.0</v>
+      </c>
+      <c r="F44" s="3">
+        <v>24.0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="E45" s="3">
+        <v>250.0</v>
+      </c>
+      <c r="F45" s="3">
+        <v>24.0</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="E46" s="3">
+        <v>50.0</v>
+      </c>
+      <c r="F46" s="3">
+        <v>24.0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="E47" s="3">
+        <v>100.0</v>
+      </c>
+      <c r="F47" s="3">
+        <v>24.0</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="E48" s="3">
+        <v>250.0</v>
+      </c>
+      <c r="F48" s="3">
+        <v>24.0</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="E49" s="3">
+        <v>250.0</v>
+      </c>
+      <c r="F49" s="3">
+        <v>24.0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="E50" s="3">
+        <v>250.0</v>
+      </c>
+      <c r="F50" s="3">
+        <v>27.0</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="E51" s="3">
+        <v>250.0</v>
+      </c>
+      <c r="F51" s="3">
+        <v>27.0</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="E52" s="3">
+        <v>250.0</v>
+      </c>
+      <c r="F52" s="3">
+        <v>27.0</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="E53" s="3">
+        <v>250.0</v>
+      </c>
+      <c r="F53" s="3">
+        <v>27.0</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="E54" s="3">
+        <v>250.0</v>
+      </c>
+      <c r="F54" s="3">
+        <v>27.0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="E55" s="3">
+        <v>250.0</v>
+      </c>
+      <c r="F55" s="3">
+        <v>30.0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="E56" s="3">
+        <v>50.0</v>
+      </c>
+      <c r="F56" s="3">
+        <v>30.0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="E57" s="3">
+        <v>100.0</v>
+      </c>
+      <c r="F57" s="3">
+        <v>30.0</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="E58" s="3">
+        <v>250.0</v>
+      </c>
+      <c r="F58" s="3">
+        <v>30.0</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="E59" s="3">
+        <v>50.0</v>
+      </c>
+      <c r="F59" s="3">
+        <v>30.0</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="E60" s="3">
+        <v>100.0</v>
+      </c>
+      <c r="F60" s="3">
+        <v>30.0</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="E61" s="3">
+        <v>250.0</v>
+      </c>
+      <c r="F61" s="3">
+        <v>30.0</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="D62" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="E62" s="3">
+        <v>50.0</v>
+      </c>
+      <c r="F62" s="3">
+        <v>30.0</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="D63" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="E63" s="3">
+        <v>100.0</v>
+      </c>
+      <c r="F63" s="3">
+        <v>30.0</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="D64" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="E64" s="3">
+        <v>250.0</v>
+      </c>
+      <c r="F64" s="3">
+        <v>30.0</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="D65" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="E65" s="3">
+        <v>50.0</v>
+      </c>
+      <c r="F65" s="3">
+        <v>33.0</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="D66" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="E66" s="3">
+        <v>100.0</v>
+      </c>
+      <c r="F66" s="3">
+        <v>33.0</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="D67" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="E67" s="3">
+        <v>250.0</v>
+      </c>
+      <c r="F67" s="3">
+        <v>33.0</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="D68" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="E68" s="3">
+        <v>50.0</v>
+      </c>
+      <c r="F68" s="3">
+        <v>33.0</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C69" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="D69" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="E69" s="3">
+        <v>100.0</v>
+      </c>
+      <c r="F69" s="3">
+        <v>33.0</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="D70" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="E70" s="3">
+        <v>250.0</v>
+      </c>
+      <c r="F70" s="3">
+        <v>33.0</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="D71" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="E71" s="3">
+        <v>50.0</v>
+      </c>
+      <c r="F71" s="3">
+        <v>33.0</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="D72" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="E72" s="3">
+        <v>100.0</v>
+      </c>
+      <c r="F72" s="3">
+        <v>33.0</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C73" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="D73" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="E73" s="3">
+        <v>250.0</v>
+      </c>
+      <c r="F73" s="3">
+        <v>33.0</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="3" t="s">
+        <v>327</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C74" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="D74" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="E74" s="3">
+        <v>50.0</v>
+      </c>
+      <c r="F74" s="3">
+        <v>33.0</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C75" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="D75" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="E75" s="3">
+        <v>100.0</v>
+      </c>
+      <c r="F75" s="3">
+        <v>33.0</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C76" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="D76" s="3" t="s">
+        <v>332</v>
+      </c>
+      <c r="E76" s="3">
+        <v>250.0</v>
+      </c>
+      <c r="F76" s="3">
+        <v>33.0</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C77" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="D77" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="E77" s="3">
+        <v>50.0</v>
+      </c>
+      <c r="F77" s="3">
+        <v>36.0</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C78" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="D78" s="3" t="s">
+        <v>336</v>
+      </c>
+      <c r="E78" s="3">
+        <v>100.0</v>
+      </c>
+      <c r="F78" s="3">
+        <v>36.0</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C79" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="D79" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="E79" s="3">
+        <v>250.0</v>
+      </c>
+      <c r="F79" s="3">
+        <v>36.0</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C80" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="D80" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="E80" s="3">
+        <v>250.0</v>
+      </c>
+      <c r="F80" s="3">
+        <v>36.0</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C81" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="D81" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="E81" s="3">
+        <v>50.0</v>
+      </c>
+      <c r="F81" s="3">
+        <v>36.0</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C82" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="D82" s="3" t="s">
+        <v>344</v>
+      </c>
+      <c r="E82" s="3">
+        <v>100.0</v>
+      </c>
+      <c r="F82" s="3">
+        <v>36.0</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="3" t="s">
+        <v>345</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C83" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="D83" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="E83" s="3">
+        <v>250.0</v>
+      </c>
+      <c r="F83" s="3">
+        <v>36.0</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="3" t="s">
+        <v>347</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C84" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="D84" s="3" t="s">
+        <v>348</v>
+      </c>
+      <c r="E84" s="3">
+        <v>50.0</v>
+      </c>
+      <c r="F84" s="3">
+        <v>39.0</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C85" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="D85" s="3" t="s">
+        <v>350</v>
+      </c>
+      <c r="E85" s="3">
+        <v>100.0</v>
+      </c>
+      <c r="F85" s="3">
+        <v>39.0</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="3" t="s">
+        <v>351</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C86" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="D86" s="3" t="s">
+        <v>352</v>
+      </c>
+      <c r="E86" s="3">
+        <v>250.0</v>
+      </c>
+      <c r="F86" s="3">
+        <v>39.0</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C87" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="D87" s="3" t="s">
+        <v>354</v>
+      </c>
+      <c r="E87" s="3">
+        <v>50.0</v>
+      </c>
+      <c r="F87" s="3">
+        <v>39.0</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C88" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="D88" s="3" t="s">
+        <v>356</v>
+      </c>
+      <c r="E88" s="3">
+        <v>100.0</v>
+      </c>
+      <c r="F88" s="3">
+        <v>39.0</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C89" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="D89" s="3" t="s">
+        <v>358</v>
+      </c>
+      <c r="E89" s="3">
+        <v>250.0</v>
+      </c>
+      <c r="F89" s="3">
+        <v>39.0</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="3" t="s">
+        <v>359</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C90" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="D90" s="3" t="s">
+        <v>360</v>
+      </c>
+      <c r="E90" s="3">
+        <v>50.0</v>
+      </c>
+      <c r="F90" s="3">
+        <v>39.0</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C91" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="D91" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="E91" s="3">
+        <v>100.0</v>
+      </c>
+      <c r="F91" s="3">
+        <v>39.0</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="3" t="s">
+        <v>363</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C92" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="D92" s="3" t="s">
+        <v>364</v>
+      </c>
+      <c r="E92" s="3">
+        <v>250.0</v>
+      </c>
+      <c r="F92" s="3">
+        <v>39.0</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="3" t="s">
+        <v>365</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C93" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="D93" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="E93" s="3">
+        <v>50.0</v>
+      </c>
+      <c r="F93" s="3">
+        <v>39.0</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C94" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="D94" s="3" t="s">
+        <v>368</v>
+      </c>
+      <c r="E94" s="3">
+        <v>100.0</v>
+      </c>
+      <c r="F94" s="3">
+        <v>39.0</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="3" t="s">
+        <v>369</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C95" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="D95" s="3" t="s">
+        <v>370</v>
+      </c>
+      <c r="E95" s="3">
+        <v>250.0</v>
+      </c>
+      <c r="F95" s="3">
+        <v>39.0</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="3" t="s">
+        <v>371</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="D96" s="3" t="s">
+        <v>373</v>
+      </c>
+      <c r="E96" s="3">
+        <v>250.0</v>
+      </c>
+      <c r="F96" s="3">
+        <v>42.0</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="3" t="s">
+        <v>374</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="D97" s="3" t="s">
+        <v>375</v>
+      </c>
+      <c r="E97" s="3">
+        <v>250.0</v>
+      </c>
+      <c r="F97" s="3">
+        <v>42.0</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="3" t="s">
+        <v>376</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="D98" s="3" t="s">
+        <v>377</v>
+      </c>
+      <c r="E98" s="3">
+        <v>250.0</v>
+      </c>
+      <c r="F98" s="3">
+        <v>42.0</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="3" t="s">
+        <v>378</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="D99" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="E99" s="3">
+        <v>250.0</v>
+      </c>
+      <c r="F99" s="3">
+        <v>42.0</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="3" t="s">
+        <v>380</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="D100" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="E100" s="3">
+        <v>250.0</v>
+      </c>
+      <c r="F100" s="3">
+        <v>45.0</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="3" t="s">
+        <v>382</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="D101" s="3" t="s">
+        <v>383</v>
+      </c>
+      <c r="E101" s="3">
+        <v>250.0</v>
+      </c>
+      <c r="F101" s="3">
+        <v>45.0</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="3" t="s">
+        <v>384</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="D102" s="3" t="s">
+        <v>385</v>
+      </c>
+      <c r="E102" s="3">
+        <v>50.0</v>
+      </c>
+      <c r="F102" s="3">
+        <v>45.0</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="3" t="s">
+        <v>386</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="D103" s="3" t="s">
+        <v>387</v>
+      </c>
+      <c r="E103" s="3">
+        <v>100.0</v>
+      </c>
+      <c r="F103" s="3">
+        <v>45.0</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="D104" s="3" t="s">
+        <v>389</v>
+      </c>
+      <c r="E104" s="3">
+        <v>250.0</v>
+      </c>
+      <c r="F104" s="3">
+        <v>45.0</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="3" t="s">
+        <v>390</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="D105" s="3" t="s">
+        <v>391</v>
+      </c>
+      <c r="E105" s="3">
+        <v>250.0</v>
+      </c>
+      <c r="F105" s="3">
+        <v>45.0</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="3" t="s">
+        <v>392</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="D106" s="3" t="s">
+        <v>393</v>
+      </c>
+      <c r="E106" s="3">
+        <v>250.0</v>
+      </c>
+      <c r="F106" s="3">
+        <v>47.0</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="3" t="s">
+        <v>394</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="D107" s="3" t="s">
+        <v>395</v>
+      </c>
+      <c r="E107" s="3">
+        <v>250.0</v>
+      </c>
+      <c r="F107" s="3">
+        <v>47.0</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="D108" s="3" t="s">
+        <v>397</v>
+      </c>
+      <c r="E108" s="3">
+        <v>50.0</v>
+      </c>
+      <c r="F108" s="3">
+        <v>47.0</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="3" t="s">
+        <v>398</v>
+      </c>
+      <c r="B109" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="D109" s="3" t="s">
+        <v>399</v>
+      </c>
+      <c r="E109" s="3">
+        <v>100.0</v>
+      </c>
+      <c r="F109" s="3">
+        <v>47.0</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="3" t="s">
+        <v>400</v>
+      </c>
+      <c r="B110" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="D110" s="3" t="s">
+        <v>401</v>
+      </c>
+      <c r="E110" s="3">
+        <v>250.0</v>
+      </c>
+      <c r="F110" s="3">
+        <v>47.0</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="3" t="s">
+        <v>402</v>
+      </c>
+      <c r="B111" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="D111" s="3" t="s">
+        <v>403</v>
+      </c>
+      <c r="E111" s="3">
+        <v>50.0</v>
+      </c>
+      <c r="F111" s="3">
+        <v>47.0</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="3" t="s">
+        <v>404</v>
+      </c>
+      <c r="B112" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="D112" s="3" t="s">
+        <v>405</v>
+      </c>
+      <c r="E112" s="3">
+        <v>100.0</v>
+      </c>
+      <c r="F112" s="3">
+        <v>47.0</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="3" t="s">
+        <v>406</v>
+      </c>
+      <c r="B113" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="D113" s="3" t="s">
+        <v>407</v>
+      </c>
+      <c r="E113" s="3">
+        <v>250.0</v>
+      </c>
+      <c r="F113" s="3">
+        <v>47.0</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="3" t="s">
+        <v>408</v>
+      </c>
+      <c r="B114" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="D114" s="3" t="s">
+        <v>409</v>
+      </c>
+      <c r="E114" s="3">
+        <v>50.0</v>
+      </c>
+      <c r="F114" s="3">
+        <v>48.0</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="3" t="s">
+        <v>410</v>
+      </c>
+      <c r="B115" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="D115" s="3" t="s">
+        <v>411</v>
+      </c>
+      <c r="E115" s="3">
+        <v>100.0</v>
+      </c>
+      <c r="F115" s="3">
+        <v>48.0</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="3" t="s">
+        <v>412</v>
+      </c>
+      <c r="B116" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C116" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="D116" s="3" t="s">
+        <v>413</v>
+      </c>
+      <c r="E116" s="3">
+        <v>250.0</v>
+      </c>
+      <c r="F116" s="3">
+        <v>48.0</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="3" t="s">
+        <v>414</v>
+      </c>
+      <c r="B117" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="D117" s="3" t="s">
+        <v>415</v>
+      </c>
+      <c r="E117" s="3">
+        <v>250.0</v>
+      </c>
+      <c r="F117" s="3">
+        <v>48.0</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="3" t="s">
+        <v>416</v>
+      </c>
+      <c r="B118" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="D118" s="3" t="s">
+        <v>417</v>
+      </c>
+      <c r="E118" s="3">
+        <v>250.0</v>
+      </c>
+      <c r="F118" s="3">
+        <v>48.0</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="3" t="s">
+        <v>418</v>
+      </c>
+      <c r="B119" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="D119" s="3" t="s">
+        <v>419</v>
+      </c>
+      <c r="E119" s="3">
+        <v>250.0</v>
+      </c>
+      <c r="F119" s="3">
+        <v>48.0</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="3" t="s">
+        <v>420</v>
+      </c>
+      <c r="B120" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C120" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="D120" s="3" t="s">
+        <v>421</v>
+      </c>
+      <c r="E120" s="3">
+        <v>250.0</v>
+      </c>
+      <c r="F120" s="3">
+        <v>48.0</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="3" t="s">
+        <v>422</v>
+      </c>
+      <c r="B121" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C121" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="D121" s="3" t="s">
+        <v>423</v>
+      </c>
+      <c r="E121" s="3">
+        <v>250.0</v>
+      </c>
+      <c r="F121" s="3">
+        <v>50.0</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="3" t="s">
+        <v>424</v>
+      </c>
+      <c r="B122" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C122" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="D122" s="3" t="s">
+        <v>425</v>
+      </c>
+      <c r="E122" s="3">
+        <v>250.0</v>
+      </c>
+      <c r="F122" s="3">
+        <v>50.0</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="3" t="s">
+        <v>426</v>
+      </c>
+      <c r="B123" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C123" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="D123" s="3" t="s">
+        <v>427</v>
+      </c>
+      <c r="E123" s="3">
+        <v>250.0</v>
+      </c>
+      <c r="F123" s="3">
+        <v>50.0</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="3" t="s">
+        <v>428</v>
+      </c>
+      <c r="B124" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C124" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="D124" s="3" t="s">
+        <v>430</v>
+      </c>
+      <c r="E124" s="3">
+        <v>250.0</v>
+      </c>
+      <c r="F124" s="3">
+        <v>51.0</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="3" t="s">
+        <v>431</v>
+      </c>
+      <c r="B125" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C125" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="D125" s="3" t="s">
+        <v>432</v>
+      </c>
+      <c r="E125" s="3">
+        <v>250.0</v>
+      </c>
+      <c r="F125" s="3">
+        <v>51.0</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="3" t="s">
+        <v>433</v>
+      </c>
+      <c r="B126" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C126" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="D126" s="3" t="s">
+        <v>434</v>
+      </c>
+      <c r="E126" s="3">
+        <v>50.0</v>
+      </c>
+      <c r="F126" s="3">
+        <v>51.0</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="B127" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C127" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="D127" s="3" t="s">
+        <v>436</v>
+      </c>
+      <c r="E127" s="3">
+        <v>100.0</v>
+      </c>
+      <c r="F127" s="3">
+        <v>51.0</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="3" t="s">
+        <v>437</v>
+      </c>
+      <c r="B128" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C128" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="D128" s="3" t="s">
+        <v>438</v>
+      </c>
+      <c r="E128" s="3">
+        <v>250.0</v>
+      </c>
+      <c r="F128" s="3">
+        <v>51.0</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="3" t="s">
+        <v>439</v>
+      </c>
+      <c r="B129" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C129" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="D129" s="3" t="s">
+        <v>440</v>
+      </c>
+      <c r="E129" s="3">
+        <v>250.0</v>
+      </c>
+      <c r="F129" s="3">
+        <v>51.0</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="3" t="s">
+        <v>441</v>
+      </c>
+      <c r="B130" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C130" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="D130" s="3" t="s">
+        <v>442</v>
+      </c>
+      <c r="E130" s="3">
+        <v>250.0</v>
+      </c>
+      <c r="F130" s="3">
+        <v>53.0</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="3" t="s">
+        <v>443</v>
+      </c>
+      <c r="B131" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C131" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="D131" s="3" t="s">
+        <v>444</v>
+      </c>
+      <c r="E131" s="3">
+        <v>250.0</v>
+      </c>
+      <c r="F131" s="3">
+        <v>53.0</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="3" t="s">
+        <v>445</v>
+      </c>
+      <c r="B132" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C132" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="D132" s="3" t="s">
+        <v>446</v>
+      </c>
+      <c r="E132" s="3">
+        <v>250.0</v>
+      </c>
+      <c r="F132" s="3">
+        <v>53.0</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="3" t="s">
+        <v>447</v>
+      </c>
+      <c r="B133" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C133" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="D133" s="3" t="s">
+        <v>448</v>
+      </c>
+      <c r="E133" s="3">
+        <v>250.0</v>
+      </c>
+      <c r="F133" s="3">
+        <v>53.0</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="3" t="s">
+        <v>449</v>
+      </c>
+      <c r="B134" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C134" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="D134" s="3" t="s">
+        <v>450</v>
+      </c>
+      <c r="E134" s="3">
+        <v>250.0</v>
+      </c>
+      <c r="F134" s="3">
+        <v>53.0</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="3" t="s">
+        <v>451</v>
+      </c>
+      <c r="B135" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C135" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="D135" s="3" t="s">
+        <v>452</v>
+      </c>
+      <c r="E135" s="3">
+        <v>250.0</v>
+      </c>
+      <c r="F135" s="3">
+        <v>53.0</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="3" t="s">
+        <v>453</v>
+      </c>
+      <c r="B136" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C136" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="D136" s="3" t="s">
+        <v>454</v>
+      </c>
+      <c r="E136" s="3">
+        <v>250.0</v>
+      </c>
+      <c r="F136" s="3">
+        <v>53.0</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="3" t="s">
+        <v>455</v>
+      </c>
+      <c r="B137" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C137" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="D137" s="3" t="s">
+        <v>456</v>
+      </c>
+      <c r="E137" s="3">
+        <v>250.0</v>
+      </c>
+      <c r="F137" s="3">
+        <v>54.0</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="3" t="s">
+        <v>457</v>
+      </c>
+      <c r="B138" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C138" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="D138" s="3" t="s">
+        <v>458</v>
+      </c>
+      <c r="E138" s="3">
+        <v>250.0</v>
+      </c>
+      <c r="F138" s="3">
+        <v>54.0</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="3" t="s">
+        <v>459</v>
+      </c>
+      <c r="B139" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C139" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="D139" s="3" t="s">
+        <v>460</v>
+      </c>
+      <c r="E139" s="3">
+        <v>250.0</v>
+      </c>
+      <c r="F139" s="3">
+        <v>54.0</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="3" t="s">
+        <v>461</v>
+      </c>
+      <c r="B140" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C140" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="D140" s="3" t="s">
+        <v>462</v>
+      </c>
+      <c r="E140" s="3">
+        <v>250.0</v>
+      </c>
+      <c r="F140" s="3">
+        <v>54.0</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="3" t="s">
+        <v>463</v>
+      </c>
+      <c r="B141" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C141" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="D141" s="3" t="s">
+        <v>464</v>
+      </c>
+      <c r="E141" s="3">
+        <v>250.0</v>
+      </c>
+      <c r="F141" s="3">
+        <v>54.0</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="3" t="s">
+        <v>465</v>
+      </c>
+      <c r="B142" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C142" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="D142" s="3" t="s">
+        <v>466</v>
+      </c>
+      <c r="E142" s="3">
+        <v>250.0</v>
+      </c>
+      <c r="F142" s="3">
+        <v>54.0</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="3" t="s">
+        <v>467</v>
+      </c>
+      <c r="B143" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C143" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="D143" s="3" t="s">
+        <v>468</v>
+      </c>
+      <c r="E143" s="3">
+        <v>250.0</v>
+      </c>
+      <c r="F143" s="3">
+        <v>54.0</v>
+      </c>
+    </row>
+  </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
@@ -15341,10 +19101,9 @@
   <cols>
     <col customWidth="1" min="1" max="1" width="9.25"/>
     <col customWidth="1" min="2" max="2" width="10.13"/>
-    <col customWidth="1" min="3" max="3" width="10.63"/>
-    <col customWidth="1" min="4" max="4" width="11.88"/>
-    <col customWidth="1" min="5" max="5" width="18.88"/>
-    <col customWidth="1" min="6" max="25" width="10.63"/>
+    <col customWidth="1" min="3" max="3" width="11.88"/>
+    <col customWidth="1" min="4" max="4" width="18.88"/>
+    <col customWidth="1" min="5" max="24" width="10.63"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -15355,15 +19114,12 @@
         <v>155</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>2</v>
+        <v>156</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>156</v>
+        <v>1</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" s="2" t="s">
         <v>157</v>
       </c>
     </row>
@@ -15374,14 +19130,13 @@
       <c r="B2" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="C2" s="2"/>
+      <c r="C2" s="2" t="s">
+        <v>4</v>
+      </c>
       <c r="D2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="F2" s="2">
+      <c r="E2" s="2">
         <v>0.0</v>
       </c>
     </row>
@@ -15392,14 +19147,13 @@
       <c r="B3" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="C3" s="2"/>
+      <c r="C3" s="2" t="s">
+        <v>4</v>
+      </c>
       <c r="D3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="F3" s="2">
+      <c r="E3" s="2">
         <v>0.0</v>
       </c>
     </row>
@@ -15410,14 +19164,13 @@
       <c r="B4" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="C4" s="2"/>
+      <c r="C4" s="2" t="s">
+        <v>4</v>
+      </c>
       <c r="D4" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E4" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="F4" s="2">
+      <c r="E4" s="2">
         <v>25.0</v>
       </c>
     </row>
@@ -15428,14 +19181,13 @@
       <c r="B5" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="C5" s="2"/>
+      <c r="C5" s="2" t="s">
+        <v>4</v>
+      </c>
       <c r="D5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E5" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="F5" s="2">
+      <c r="E5" s="2">
         <v>75.0</v>
       </c>
     </row>
@@ -15446,14 +19198,13 @@
       <c r="B6" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="C6" s="2"/>
+      <c r="C6" s="2" t="s">
+        <v>4</v>
+      </c>
       <c r="D6" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E6" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="F6" s="2">
+      <c r="E6" s="2">
         <v>150.0</v>
       </c>
     </row>
@@ -15464,14 +19215,13 @@
       <c r="B7" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="C7" s="2"/>
+      <c r="C7" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="D7" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E7" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="F7" s="2">
+      <c r="E7" s="2">
         <v>0.0</v>
       </c>
     </row>
@@ -15482,14 +19232,13 @@
       <c r="B8" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="C8" s="2"/>
+      <c r="C8" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="D8" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E8" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="F8" s="2">
+      <c r="E8" s="2">
         <v>0.0</v>
       </c>
     </row>
@@ -15500,14 +19249,13 @@
       <c r="B9" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="C9" s="2"/>
+      <c r="C9" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="D9" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E9" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="F9" s="2">
+      <c r="E9" s="2">
         <v>25.0</v>
       </c>
     </row>
@@ -15518,14 +19266,13 @@
       <c r="B10" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="C10" s="2"/>
+      <c r="C10" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="D10" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E10" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="F10" s="2">
+      <c r="E10" s="2">
         <v>75.0</v>
       </c>
     </row>
@@ -15536,14 +19283,13 @@
       <c r="B11" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="C11" s="2"/>
+      <c r="C11" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="D11" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E11" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="F11" s="2">
+      <c r="E11" s="2">
         <v>150.0</v>
       </c>
     </row>
@@ -15554,14 +19300,13 @@
       <c r="B12" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="C12" s="2"/>
+      <c r="C12" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="D12" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E12" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="F12" s="2"/>
+      <c r="E12" s="2"/>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
@@ -15570,14 +19315,13 @@
       <c r="B13" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="C13" s="2"/>
+      <c r="C13" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="D13" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E13" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="F13" s="2">
+      <c r="E13" s="2">
         <v>0.0</v>
       </c>
     </row>
@@ -15588,14 +19332,13 @@
       <c r="B14" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="C14" s="2"/>
+      <c r="C14" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="D14" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E14" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="F14" s="2">
+      <c r="E14" s="2">
         <v>0.0</v>
       </c>
     </row>
@@ -15606,14 +19349,13 @@
       <c r="B15" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="C15" s="2"/>
+      <c r="C15" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="D15" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E15" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="F15" s="2">
+      <c r="E15" s="2">
         <v>25.0</v>
       </c>
     </row>
@@ -15624,14 +19366,13 @@
       <c r="B16" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="C16" s="2"/>
+      <c r="C16" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="D16" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E16" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="F16" s="2">
+      <c r="E16" s="2">
         <v>75.0</v>
       </c>
     </row>
@@ -15642,14 +19383,13 @@
       <c r="B17" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="C17" s="2"/>
+      <c r="C17" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="D17" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E17" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="F17" s="2">
+      <c r="E17" s="2">
         <v>150.0</v>
       </c>
     </row>
@@ -15660,14 +19400,13 @@
       <c r="B18" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="C18" s="2"/>
+      <c r="C18" s="2" t="s">
+        <v>28</v>
+      </c>
       <c r="D18" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E18" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="F18" s="2">
+      <c r="E18" s="2">
         <v>0.0</v>
       </c>
     </row>
@@ -15678,14 +19417,13 @@
       <c r="B19" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="C19" s="2"/>
+      <c r="C19" s="2" t="s">
+        <v>28</v>
+      </c>
       <c r="D19" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E19" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="F19" s="2">
+      <c r="E19" s="2">
         <v>0.0</v>
       </c>
     </row>
@@ -15696,14 +19434,13 @@
       <c r="B20" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="C20" s="2"/>
+      <c r="C20" s="2" t="s">
+        <v>28</v>
+      </c>
       <c r="D20" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E20" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="F20" s="2">
+      <c r="E20" s="2">
         <v>25.0</v>
       </c>
     </row>
@@ -15714,14 +19451,13 @@
       <c r="B21" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="C21" s="2"/>
+      <c r="C21" s="2" t="s">
+        <v>28</v>
+      </c>
       <c r="D21" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E21" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="F21" s="2">
+      <c r="E21" s="2">
         <v>75.0</v>
       </c>
     </row>
@@ -15732,14 +19468,13 @@
       <c r="B22" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="C22" s="2"/>
+      <c r="C22" s="2" t="s">
+        <v>28</v>
+      </c>
       <c r="D22" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E22" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="F22" s="2">
+      <c r="E22" s="2">
         <v>150.0</v>
       </c>
     </row>
@@ -15750,14 +19485,13 @@
       <c r="B23" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="C23" s="2"/>
+      <c r="C23" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="D23" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E23" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="F23" s="2">
+      <c r="E23" s="2">
         <v>0.0</v>
       </c>
     </row>
@@ -15768,14 +19502,13 @@
       <c r="B24" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="C24" s="2"/>
+      <c r="C24" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="D24" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E24" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="F24" s="2">
+      <c r="E24" s="2">
         <v>0.0</v>
       </c>
     </row>
@@ -15786,14 +19519,13 @@
       <c r="B25" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="C25" s="2"/>
+      <c r="C25" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="D25" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E25" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="F25" s="2">
+      <c r="E25" s="2">
         <v>25.0</v>
       </c>
     </row>
@@ -15804,14 +19536,13 @@
       <c r="B26" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="C26" s="2"/>
+      <c r="C26" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="D26" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E26" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="F26" s="2">
+      <c r="E26" s="2">
         <v>75.0</v>
       </c>
     </row>
@@ -15822,14 +19553,13 @@
       <c r="B27" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="C27" s="2"/>
+      <c r="C27" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="D27" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E27" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="F27" s="2">
+      <c r="E27" s="2">
         <v>150.0</v>
       </c>
     </row>
@@ -15840,14 +19570,13 @@
       <c r="B28" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="C28" s="2"/>
+      <c r="C28" s="2" t="s">
+        <v>35</v>
+      </c>
       <c r="D28" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E28" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="F28" s="2">
+      <c r="E28" s="2">
         <v>0.0</v>
       </c>
     </row>
@@ -15858,14 +19587,13 @@
       <c r="B29" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="C29" s="2"/>
+      <c r="C29" s="2" t="s">
+        <v>35</v>
+      </c>
       <c r="D29" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E29" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="F29" s="2">
+      <c r="E29" s="2">
         <v>0.0</v>
       </c>
     </row>
@@ -15876,14 +19604,13 @@
       <c r="B30" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="C30" s="2"/>
+      <c r="C30" s="2" t="s">
+        <v>35</v>
+      </c>
       <c r="D30" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E30" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="F30" s="2">
+      <c r="E30" s="2">
         <v>25.0</v>
       </c>
     </row>
@@ -15894,14 +19621,13 @@
       <c r="B31" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="C31" s="2"/>
+      <c r="C31" s="2" t="s">
+        <v>35</v>
+      </c>
       <c r="D31" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E31" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="F31" s="2">
+      <c r="E31" s="2">
         <v>75.0</v>
       </c>
     </row>
@@ -15912,14 +19638,13 @@
       <c r="B32" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="C32" s="2"/>
+      <c r="C32" s="2" t="s">
+        <v>35</v>
+      </c>
       <c r="D32" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E32" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="F32" s="2">
+      <c r="E32" s="2">
         <v>150.0</v>
       </c>
     </row>
@@ -15930,14 +19655,13 @@
       <c r="B33" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="C33" s="2"/>
+      <c r="C33" s="2" t="s">
+        <v>37</v>
+      </c>
       <c r="D33" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E33" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="F33" s="2">
+      <c r="E33" s="2">
         <v>0.0</v>
       </c>
     </row>
@@ -15948,14 +19672,13 @@
       <c r="B34" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="C34" s="2"/>
+      <c r="C34" s="2" t="s">
+        <v>37</v>
+      </c>
       <c r="D34" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E34" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="F34" s="2">
+      <c r="E34" s="2">
         <v>0.0</v>
       </c>
     </row>
@@ -15966,14 +19689,13 @@
       <c r="B35" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="C35" s="2"/>
+      <c r="C35" s="2" t="s">
+        <v>37</v>
+      </c>
       <c r="D35" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E35" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="F35" s="2">
+      <c r="E35" s="2">
         <v>25.0</v>
       </c>
     </row>
@@ -15984,14 +19706,13 @@
       <c r="B36" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="C36" s="2"/>
+      <c r="C36" s="2" t="s">
+        <v>37</v>
+      </c>
       <c r="D36" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E36" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="F36" s="2">
+      <c r="E36" s="2">
         <v>75.0</v>
       </c>
     </row>
@@ -16002,14 +19723,13 @@
       <c r="B37" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="C37" s="2"/>
+      <c r="C37" s="2" t="s">
+        <v>37</v>
+      </c>
       <c r="D37" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E37" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="F37" s="2">
+      <c r="E37" s="2">
         <v>150.0</v>
       </c>
     </row>
@@ -16020,14 +19740,13 @@
       <c r="B38" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="C38" s="2"/>
+      <c r="C38" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="D38" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E38" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="F38" s="2">
+      <c r="E38" s="2">
         <v>0.0</v>
       </c>
     </row>
@@ -16038,14 +19757,13 @@
       <c r="B39" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="C39" s="2"/>
+      <c r="C39" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="D39" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E39" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="F39" s="2">
+      <c r="E39" s="2">
         <v>0.0</v>
       </c>
     </row>
@@ -16056,14 +19774,13 @@
       <c r="B40" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="C40" s="2"/>
+      <c r="C40" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="D40" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E40" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="F40" s="2">
+      <c r="E40" s="2">
         <v>25.0</v>
       </c>
     </row>
@@ -16074,14 +19791,13 @@
       <c r="B41" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="C41" s="2"/>
+      <c r="C41" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="D41" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E41" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="F41" s="2">
+      <c r="E41" s="2">
         <v>75.0</v>
       </c>
     </row>
@@ -16092,14 +19808,13 @@
       <c r="B42" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="C42" s="2"/>
+      <c r="C42" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="D42" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E42" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="F42" s="2">
+      <c r="E42" s="2">
         <v>150.0</v>
       </c>
     </row>
@@ -16110,14 +19825,13 @@
       <c r="B43" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="C43" s="2"/>
+      <c r="C43" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="D43" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E43" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="F43" s="2">
+      <c r="E43" s="2">
         <v>0.0</v>
       </c>
     </row>
@@ -16128,14 +19842,13 @@
       <c r="B44" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="C44" s="2"/>
+      <c r="C44" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="D44" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E44" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="F44" s="2">
+      <c r="E44" s="2">
         <v>0.0</v>
       </c>
     </row>
@@ -16146,14 +19859,13 @@
       <c r="B45" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="C45" s="2"/>
+      <c r="C45" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="D45" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E45" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="F45" s="2">
+      <c r="E45" s="2">
         <v>25.0</v>
       </c>
     </row>
@@ -16164,14 +19876,13 @@
       <c r="B46" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="C46" s="2"/>
+      <c r="C46" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="D46" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E46" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="F46" s="2">
+      <c r="E46" s="2">
         <v>75.0</v>
       </c>
     </row>
@@ -16182,14 +19893,13 @@
       <c r="B47" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="C47" s="2"/>
+      <c r="C47" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="D47" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E47" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="F47" s="2">
+      <c r="E47" s="2">
         <v>150.0</v>
       </c>
     </row>
@@ -16200,14 +19910,13 @@
       <c r="B48" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="C48" s="2"/>
+      <c r="C48" s="2" t="s">
+        <v>24</v>
+      </c>
       <c r="D48" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E48" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="F48" s="2">
+      <c r="E48" s="2">
         <v>0.0</v>
       </c>
     </row>
@@ -16218,14 +19927,13 @@
       <c r="B49" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="C49" s="2"/>
+      <c r="C49" s="2" t="s">
+        <v>24</v>
+      </c>
       <c r="D49" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E49" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="F49" s="2">
+      <c r="E49" s="2">
         <v>0.0</v>
       </c>
     </row>
@@ -16236,14 +19944,13 @@
       <c r="B50" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="C50" s="2"/>
+      <c r="C50" s="2" t="s">
+        <v>24</v>
+      </c>
       <c r="D50" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E50" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="F50" s="2">
+      <c r="E50" s="2">
         <v>25.0</v>
       </c>
     </row>
@@ -16254,14 +19961,13 @@
       <c r="B51" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="C51" s="2"/>
+      <c r="C51" s="2" t="s">
+        <v>24</v>
+      </c>
       <c r="D51" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E51" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="F51" s="2">
+      <c r="E51" s="2">
         <v>75.0</v>
       </c>
     </row>
@@ -16272,14 +19978,13 @@
       <c r="B52" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="C52" s="2"/>
+      <c r="C52" s="2" t="s">
+        <v>24</v>
+      </c>
       <c r="D52" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E52" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="F52" s="2">
+      <c r="E52" s="2">
         <v>150.0</v>
       </c>
     </row>
@@ -16290,14 +19995,13 @@
       <c r="B53" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="C53" s="2"/>
+      <c r="C53" s="2" t="s">
+        <v>24</v>
+      </c>
       <c r="D53" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E53" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="F53" s="2"/>
+      <c r="E53" s="2"/>
     </row>
     <row r="54" ht="15.75" customHeight="1">
       <c r="A54" s="2" t="s">
@@ -16306,14 +20010,13 @@
       <c r="B54" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="C54" s="2"/>
+      <c r="C54" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="D54" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E54" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="F54" s="2">
+      <c r="E54" s="2">
         <v>0.0</v>
       </c>
     </row>
@@ -16324,14 +20027,13 @@
       <c r="B55" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="C55" s="2"/>
+      <c r="C55" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="D55" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E55" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="F55" s="2">
+      <c r="E55" s="2">
         <v>0.0</v>
       </c>
     </row>
@@ -16342,14 +20044,13 @@
       <c r="B56" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="C56" s="2"/>
+      <c r="C56" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="D56" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E56" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="F56" s="2">
+      <c r="E56" s="2">
         <v>25.0</v>
       </c>
     </row>
@@ -16360,14 +20061,13 @@
       <c r="B57" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="C57" s="2"/>
+      <c r="C57" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="D57" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E57" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="F57" s="2">
+      <c r="E57" s="2">
         <v>75.0</v>
       </c>
     </row>
@@ -16378,14 +20078,13 @@
       <c r="B58" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="C58" s="2"/>
+      <c r="C58" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="D58" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E58" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="F58" s="2">
+      <c r="E58" s="2">
         <v>150.0</v>
       </c>
     </row>
@@ -16396,14 +20095,13 @@
       <c r="B59" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="C59" s="2"/>
+      <c r="C59" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="D59" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E59" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="F59" s="2">
+      <c r="E59" s="2">
         <v>0.0</v>
       </c>
     </row>
@@ -16414,14 +20112,13 @@
       <c r="B60" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="C60" s="2"/>
+      <c r="C60" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="D60" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E60" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="F60" s="2">
+      <c r="E60" s="2">
         <v>0.0</v>
       </c>
     </row>
@@ -16432,14 +20129,13 @@
       <c r="B61" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="C61" s="2"/>
+      <c r="C61" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="D61" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E61" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="F61" s="2">
+      <c r="E61" s="2">
         <v>25.0</v>
       </c>
     </row>
@@ -16450,14 +20146,13 @@
       <c r="B62" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="C62" s="2"/>
+      <c r="C62" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="D62" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E62" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="F62" s="2">
+      <c r="E62" s="2">
         <v>75.0</v>
       </c>
     </row>
@@ -16468,14 +20163,13 @@
       <c r="B63" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="C63" s="2"/>
+      <c r="C63" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="D63" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E63" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="F63" s="2">
+      <c r="E63" s="2">
         <v>150.0</v>
       </c>
     </row>
@@ -16486,14 +20180,13 @@
       <c r="B64" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="C64" s="2"/>
+      <c r="C64" s="2" t="s">
+        <v>11</v>
+      </c>
       <c r="D64" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E64" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="F64" s="2">
+      <c r="E64" s="2">
         <v>0.0</v>
       </c>
     </row>
@@ -16504,14 +20197,13 @@
       <c r="B65" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="C65" s="2"/>
+      <c r="C65" s="2" t="s">
+        <v>11</v>
+      </c>
       <c r="D65" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E65" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="F65" s="2">
+      <c r="E65" s="2">
         <v>0.0</v>
       </c>
     </row>
@@ -16522,14 +20214,13 @@
       <c r="B66" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="C66" s="2"/>
+      <c r="C66" s="2" t="s">
+        <v>11</v>
+      </c>
       <c r="D66" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E66" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="F66" s="2">
+      <c r="E66" s="2">
         <v>25.0</v>
       </c>
     </row>
@@ -16540,14 +20231,13 @@
       <c r="B67" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="C67" s="2"/>
+      <c r="C67" s="2" t="s">
+        <v>11</v>
+      </c>
       <c r="D67" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E67" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="F67" s="2">
+      <c r="E67" s="2">
         <v>75.0</v>
       </c>
     </row>
@@ -16558,14 +20248,13 @@
       <c r="B68" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="C68" s="2"/>
+      <c r="C68" s="2" t="s">
+        <v>11</v>
+      </c>
       <c r="D68" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E68" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="F68" s="2">
+      <c r="E68" s="2">
         <v>150.0</v>
       </c>
     </row>
@@ -16576,14 +20265,13 @@
       <c r="B69" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="C69" s="2"/>
+      <c r="C69" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="D69" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E69" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="F69" s="2">
+      <c r="E69" s="2">
         <v>0.0</v>
       </c>
     </row>
@@ -16594,14 +20282,13 @@
       <c r="B70" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="C70" s="2"/>
+      <c r="C70" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="D70" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E70" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="F70" s="2">
+      <c r="E70" s="2">
         <v>0.0</v>
       </c>
     </row>
@@ -16612,14 +20299,13 @@
       <c r="B71" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="C71" s="2"/>
+      <c r="C71" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="D71" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E71" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="F71" s="2">
+      <c r="E71" s="2">
         <v>25.0</v>
       </c>
     </row>
@@ -16630,14 +20316,13 @@
       <c r="B72" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="C72" s="2"/>
+      <c r="C72" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="D72" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E72" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="F72" s="2">
+      <c r="E72" s="2">
         <v>75.0</v>
       </c>
     </row>
@@ -16648,14 +20333,13 @@
       <c r="B73" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="C73" s="2"/>
+      <c r="C73" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="D73" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E73" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="F73" s="2">
+      <c r="E73" s="2">
         <v>150.0</v>
       </c>
     </row>
@@ -16666,14 +20350,13 @@
       <c r="B74" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="C74" s="2"/>
+      <c r="C74" s="2" t="s">
+        <v>26</v>
+      </c>
       <c r="D74" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E74" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="F74" s="2">
+      <c r="E74" s="2">
         <v>0.0</v>
       </c>
     </row>
@@ -16684,14 +20367,13 @@
       <c r="B75" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="C75" s="2"/>
+      <c r="C75" s="2" t="s">
+        <v>26</v>
+      </c>
       <c r="D75" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E75" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="F75" s="2">
+      <c r="E75" s="2">
         <v>0.0</v>
       </c>
     </row>
@@ -16702,14 +20384,13 @@
       <c r="B76" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="C76" s="2"/>
+      <c r="C76" s="2" t="s">
+        <v>26</v>
+      </c>
       <c r="D76" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E76" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="F76" s="2">
+      <c r="E76" s="2">
         <v>25.0</v>
       </c>
     </row>
@@ -16720,14 +20401,13 @@
       <c r="B77" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="C77" s="2"/>
+      <c r="C77" s="2" t="s">
+        <v>26</v>
+      </c>
       <c r="D77" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E77" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="F77" s="2">
+      <c r="E77" s="2">
         <v>75.0</v>
       </c>
     </row>
@@ -16738,14 +20418,13 @@
       <c r="B78" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="C78" s="2"/>
+      <c r="C78" s="2" t="s">
+        <v>26</v>
+      </c>
       <c r="D78" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E78" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="F78" s="2">
+      <c r="E78" s="2">
         <v>150.0</v>
       </c>
     </row>
@@ -16756,14 +20435,13 @@
       <c r="B79" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="C79" s="2"/>
+      <c r="C79" s="2" t="s">
+        <v>26</v>
+      </c>
       <c r="D79" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E79" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="F79" s="2"/>
+      <c r="E79" s="2"/>
     </row>
     <row r="80" ht="15.75" customHeight="1">
       <c r="A80" s="2" t="s">
@@ -16772,14 +20450,13 @@
       <c r="B80" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="C80" s="2"/>
+      <c r="C80" s="2" t="s">
+        <v>16</v>
+      </c>
       <c r="D80" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E80" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="F80" s="2">
+      <c r="E80" s="2">
         <v>0.0</v>
       </c>
     </row>
@@ -16790,14 +20467,13 @@
       <c r="B81" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="C81" s="2"/>
+      <c r="C81" s="2" t="s">
+        <v>16</v>
+      </c>
       <c r="D81" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E81" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="F81" s="2">
+      <c r="E81" s="2">
         <v>0.0</v>
       </c>
     </row>
@@ -16808,14 +20484,13 @@
       <c r="B82" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="C82" s="2"/>
+      <c r="C82" s="2" t="s">
+        <v>16</v>
+      </c>
       <c r="D82" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E82" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="F82" s="2">
+      <c r="E82" s="2">
         <v>25.0</v>
       </c>
     </row>
@@ -16826,14 +20501,13 @@
       <c r="B83" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="C83" s="2"/>
+      <c r="C83" s="2" t="s">
+        <v>16</v>
+      </c>
       <c r="D83" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E83" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="F83" s="2">
+      <c r="E83" s="2">
         <v>75.0</v>
       </c>
     </row>
@@ -16844,14 +20518,13 @@
       <c r="B84" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="C84" s="2"/>
+      <c r="C84" s="2" t="s">
+        <v>16</v>
+      </c>
       <c r="D84" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E84" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="F84" s="2">
+      <c r="E84" s="2">
         <v>150.0</v>
       </c>
     </row>
@@ -16862,14 +20535,13 @@
       <c r="B85" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="C85" s="2"/>
+      <c r="C85" s="2" t="s">
+        <v>22</v>
+      </c>
       <c r="D85" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E85" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="F85" s="2">
+      <c r="E85" s="2">
         <v>0.0</v>
       </c>
     </row>
@@ -16880,14 +20552,13 @@
       <c r="B86" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="C86" s="2"/>
+      <c r="C86" s="2" t="s">
+        <v>22</v>
+      </c>
       <c r="D86" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E86" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="F86" s="2">
+      <c r="E86" s="2">
         <v>0.0</v>
       </c>
     </row>
@@ -16898,14 +20569,13 @@
       <c r="B87" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="C87" s="2"/>
+      <c r="C87" s="2" t="s">
+        <v>22</v>
+      </c>
       <c r="D87" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E87" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="F87" s="2">
+      <c r="E87" s="2">
         <v>25.0</v>
       </c>
     </row>
@@ -16916,14 +20586,13 @@
       <c r="B88" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="C88" s="2"/>
+      <c r="C88" s="2" t="s">
+        <v>22</v>
+      </c>
       <c r="D88" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E88" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="F88" s="2">
+      <c r="E88" s="2">
         <v>75.0</v>
       </c>
     </row>
@@ -16934,14 +20603,13 @@
       <c r="B89" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="C89" s="2"/>
+      <c r="C89" s="2" t="s">
+        <v>22</v>
+      </c>
       <c r="D89" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E89" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="F89" s="2">
+      <c r="E89" s="2">
         <v>150.0</v>
       </c>
     </row>
@@ -16952,14 +20620,13 @@
       <c r="B90" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="C90" s="2"/>
-      <c r="D90" s="3" t="s">
+      <c r="C90" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="E90" s="2" t="s">
+      <c r="D90" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="F90" s="2">
+      <c r="E90" s="2">
         <v>0.0</v>
       </c>
     </row>
@@ -16970,14 +20637,13 @@
       <c r="B91" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="C91" s="2"/>
-      <c r="D91" s="3" t="s">
+      <c r="C91" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="E91" s="2" t="s">
+      <c r="D91" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="F91" s="2">
+      <c r="E91" s="2">
         <v>0.0</v>
       </c>
     </row>
@@ -16988,14 +20654,13 @@
       <c r="B92" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="C92" s="2"/>
-      <c r="D92" s="3" t="s">
+      <c r="C92" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="E92" s="2" t="s">
+      <c r="D92" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="F92" s="2">
+      <c r="E92" s="2">
         <v>25.0</v>
       </c>
     </row>
@@ -17006,14 +20671,13 @@
       <c r="B93" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="C93" s="2"/>
-      <c r="D93" s="3" t="s">
+      <c r="C93" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="E93" s="2" t="s">
+      <c r="D93" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="F93" s="2">
+      <c r="E93" s="2">
         <v>75.0</v>
       </c>
     </row>
@@ -17024,14 +20688,13 @@
       <c r="B94" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="C94" s="2"/>
-      <c r="D94" s="3" t="s">
+      <c r="C94" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="E94" s="2" t="s">
+      <c r="D94" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="F94" s="2">
+      <c r="E94" s="2">
         <v>150.0</v>
       </c>
     </row>
@@ -17042,14 +20705,13 @@
       <c r="B95" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="C95" s="2"/>
-      <c r="D95" s="3" t="s">
+      <c r="C95" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="E95" s="2" t="s">
+      <c r="D95" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="F95" s="2"/>
+      <c r="E95" s="2"/>
     </row>
     <row r="96" ht="15.75" customHeight="1">
       <c r="A96" s="2" t="s">
@@ -17058,14 +20720,13 @@
       <c r="B96" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="C96" s="2"/>
+      <c r="C96" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="D96" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E96" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="F96" s="2">
+      <c r="E96" s="2">
         <v>0.0</v>
       </c>
     </row>
@@ -17076,14 +20737,13 @@
       <c r="B97" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="C97" s="2"/>
+      <c r="C97" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="D97" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E97" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="F97" s="2">
+      <c r="E97" s="2">
         <v>0.0</v>
       </c>
     </row>
@@ -17094,14 +20754,13 @@
       <c r="B98" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="C98" s="2"/>
+      <c r="C98" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="D98" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E98" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="F98" s="2">
+      <c r="E98" s="2">
         <v>25.0</v>
       </c>
     </row>
@@ -17112,14 +20771,13 @@
       <c r="B99" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="C99" s="2"/>
+      <c r="C99" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="D99" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E99" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="F99" s="2">
+      <c r="E99" s="2">
         <v>75.0</v>
       </c>
     </row>
@@ -17130,14 +20788,13 @@
       <c r="B100" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="C100" s="2"/>
+      <c r="C100" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="D100" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E100" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="F100" s="2">
+      <c r="E100" s="2">
         <v>150.0</v>
       </c>
     </row>
@@ -17148,14 +20805,13 @@
       <c r="B101" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="C101" s="2"/>
-      <c r="D101" s="6" t="s">
+      <c r="C101" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="E101" s="2" t="s">
+      <c r="D101" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="F101" s="2">
+      <c r="E101" s="2">
         <v>0.0</v>
       </c>
     </row>
@@ -17166,14 +20822,13 @@
       <c r="B102" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="C102" s="2"/>
-      <c r="D102" s="7" t="s">
+      <c r="C102" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="E102" s="2" t="s">
+      <c r="D102" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="F102" s="2">
+      <c r="E102" s="2">
         <v>0.0</v>
       </c>
     </row>
@@ -17184,14 +20839,13 @@
       <c r="B103" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="C103" s="2"/>
-      <c r="D103" s="7" t="s">
+      <c r="C103" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="E103" s="2" t="s">
+      <c r="D103" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="F103" s="2">
+      <c r="E103" s="2">
         <v>25.0</v>
       </c>
     </row>
@@ -17202,14 +20856,13 @@
       <c r="B104" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="C104" s="2"/>
-      <c r="D104" s="7" t="s">
+      <c r="C104" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="E104" s="2" t="s">
+      <c r="D104" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="F104" s="2">
+      <c r="E104" s="2">
         <v>75.0</v>
       </c>
     </row>
@@ -17220,14 +20873,13 @@
       <c r="B105" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="C105" s="2"/>
-      <c r="D105" s="7" t="s">
+      <c r="C105" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="E105" s="2" t="s">
+      <c r="D105" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="F105" s="2">
+      <c r="E105" s="2">
         <v>150.0</v>
       </c>
     </row>
@@ -17238,14 +20890,13 @@
       <c r="B106" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="C106" s="2"/>
+      <c r="C106" s="2" t="s">
+        <v>14</v>
+      </c>
       <c r="D106" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E106" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="F106" s="2">
+      <c r="E106" s="2">
         <v>0.0</v>
       </c>
     </row>
@@ -17256,14 +20907,13 @@
       <c r="B107" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="C107" s="2"/>
+      <c r="C107" s="2" t="s">
+        <v>14</v>
+      </c>
       <c r="D107" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E107" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="F107" s="2">
+      <c r="E107" s="2">
         <v>0.0</v>
       </c>
     </row>
@@ -17274,14 +20924,13 @@
       <c r="B108" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="C108" s="2"/>
+      <c r="C108" s="2" t="s">
+        <v>14</v>
+      </c>
       <c r="D108" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E108" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="F108" s="2">
+      <c r="E108" s="2">
         <v>25.0</v>
       </c>
     </row>
@@ -17292,14 +20941,13 @@
       <c r="B109" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="C109" s="2"/>
+      <c r="C109" s="2" t="s">
+        <v>14</v>
+      </c>
       <c r="D109" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E109" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="F109" s="2">
+      <c r="E109" s="2">
         <v>75.0</v>
       </c>
     </row>
@@ -17310,14 +20958,13 @@
       <c r="B110" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="C110" s="2"/>
+      <c r="C110" s="2" t="s">
+        <v>14</v>
+      </c>
       <c r="D110" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E110" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="F110" s="2">
+      <c r="E110" s="2">
         <v>150.0</v>
       </c>
     </row>
@@ -17328,14 +20975,13 @@
       <c r="B111" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="C111" s="2"/>
-      <c r="D111" s="3" t="s">
+      <c r="C111" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E111" s="2" t="s">
+      <c r="D111" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="F111" s="2">
+      <c r="E111" s="2">
         <v>0.0</v>
       </c>
     </row>
@@ -17346,14 +20992,13 @@
       <c r="B112" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="C112" s="2"/>
-      <c r="D112" s="3" t="s">
+      <c r="C112" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E112" s="2" t="s">
+      <c r="D112" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="F112" s="2">
+      <c r="E112" s="2">
         <v>0.0</v>
       </c>
     </row>
@@ -17364,14 +21009,13 @@
       <c r="B113" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="C113" s="2"/>
-      <c r="D113" s="3" t="s">
+      <c r="C113" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E113" s="2" t="s">
+      <c r="D113" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="F113" s="2">
+      <c r="E113" s="2">
         <v>25.0</v>
       </c>
     </row>
@@ -17382,14 +21026,13 @@
       <c r="B114" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="C114" s="2"/>
-      <c r="D114" s="3" t="s">
+      <c r="C114" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E114" s="2" t="s">
+      <c r="D114" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="F114" s="2">
+      <c r="E114" s="2">
         <v>75.0</v>
       </c>
     </row>
@@ -17400,14 +21043,13 @@
       <c r="B115" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="C115" s="2"/>
-      <c r="D115" s="3" t="s">
+      <c r="C115" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E115" s="2" t="s">
+      <c r="D115" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="F115" s="2">
+      <c r="E115" s="2">
         <v>150.0</v>
       </c>
     </row>
@@ -17418,14 +21060,13 @@
       <c r="B116" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="C116" s="2"/>
-      <c r="D116" s="3" t="s">
+      <c r="C116" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E116" s="2" t="s">
+      <c r="D116" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="F116" s="2"/>
+      <c r="E116" s="2"/>
     </row>
     <row r="117" ht="15.75" customHeight="1"/>
     <row r="118" ht="15.75" customHeight="1"/>
